--- a/DV7 Devices Support List.xlsx
+++ b/DV7 Devices Support List.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Wireless" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Switch!$A$2:$J$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Switch!$A$2:$J$170</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="445">
   <si>
     <t>C2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2411,10 +2411,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POE功能暂时有BUG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Joshua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2485,10 +2481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POE功能暂时有BUG，Reboot问题在2.00.020版解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>testing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2512,15 +2504,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设备Upgrade时，进行TFTP传FW文件会由于设备重复回应确认包导致传输中断。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.00.B021</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.3.3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">log: 
+Dev FW:1.00.032; 
+Status:Fail
+1.Failed to select the next boot image when firmware upgrade, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>DV7 need to modified the upgrade mechansim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2.trap host created failed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>DV7 cannot support G2 devices host create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+DV7:1.2.2.1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2.00.B021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSR-1000AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSR-500AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和PP正在确认是否支持DHCP功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备Upgrade时，进行TFTP传FW文件会由于设备重复回应确认包导致传输中断，和PP正在确认是否支持DHCP功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMC-1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备Upgrade时，进行TFTP传FW文件会由于设备重复回应确认包导致传输中断，和PP正在确认是否支持DHCP功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备Upgrade时，进行TFTP传FW文件会由于设备重复回应确认包导致传输中断，和PP正在确认是否支持DHCP功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3229,13 +3313,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:M170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G167" sqref="G167"/>
+      <selection pane="bottomRight" activeCell="G166" sqref="G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
@@ -3301,7 +3385,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1">
+    <row r="3" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A3" s="24" t="s">
         <v>320</v>
       </c>
@@ -3327,7 +3411,7 @@
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
     </row>
-    <row r="4" spans="1:12" ht="12.75" customHeight="1">
+    <row r="4" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>322</v>
       </c>
@@ -3355,7 +3439,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="12.75" customHeight="1">
+    <row r="5" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>321</v>
       </c>
@@ -3381,7 +3465,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:12" ht="12.75" customHeight="1">
+    <row r="6" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>321</v>
       </c>
@@ -3409,7 +3493,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12.75" customHeight="1">
+    <row r="7" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>329</v>
       </c>
@@ -3437,7 +3521,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="12.75" customHeight="1">
+    <row r="8" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>58</v>
       </c>
@@ -3463,7 +3547,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1">
+    <row r="9" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>324</v>
       </c>
@@ -3491,7 +3575,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="12.75" customHeight="1">
+    <row r="10" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>54</v>
       </c>
@@ -3519,7 +3603,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="12.75" customHeight="1">
+    <row r="11" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>325</v>
       </c>
@@ -3545,7 +3629,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
@@ -3574,7 +3658,7 @@
       </c>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:12" ht="12.75" customHeight="1">
+    <row r="13" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>59</v>
       </c>
@@ -3600,7 +3684,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="1:12" ht="12.75" customHeight="1">
+    <row r="14" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>262</v>
       </c>
@@ -3628,7 +3712,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="12.75" customHeight="1">
+    <row r="15" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>56</v>
       </c>
@@ -3656,7 +3740,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" hidden="1">
       <c r="A16" s="8" t="s">
         <v>241</v>
       </c>
@@ -3682,7 +3766,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:13" ht="38.25">
+    <row r="17" spans="1:13" ht="38.25" hidden="1">
       <c r="A17" s="8" t="s">
         <v>326</v>
       </c>
@@ -3711,7 +3795,7 @@
       </c>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" hidden="1">
       <c r="A18" s="8" t="s">
         <v>55</v>
       </c>
@@ -3737,7 +3821,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:13" ht="38.25" customHeight="1">
+    <row r="19" spans="1:13" ht="38.25" hidden="1" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>327</v>
       </c>
@@ -3765,7 +3849,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="38.25" customHeight="1">
+    <row r="20" spans="1:13" ht="38.25" hidden="1" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>150</v>
       </c>
@@ -3791,7 +3875,7 @@
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
     </row>
-    <row r="21" spans="1:13" ht="12.75" customHeight="1">
+    <row r="21" spans="1:13" ht="12.75" hidden="1" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>60</v>
       </c>
@@ -3817,7 +3901,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:13" ht="12.75" customHeight="1">
+    <row r="22" spans="1:13" ht="12.75" hidden="1" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>328</v>
       </c>
@@ -5561,7 +5645,7 @@
       <c r="I89" s="15"/>
       <c r="J89" s="15"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" hidden="1">
       <c r="A90" s="6" t="s">
         <v>38</v>
       </c>
@@ -5587,7 +5671,7 @@
       <c r="I90" s="15"/>
       <c r="J90" s="15"/>
     </row>
-    <row r="91" spans="1:10" ht="12.75" customHeight="1">
+    <row r="91" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A91" s="6" t="s">
         <v>27</v>
       </c>
@@ -5613,7 +5697,7 @@
       <c r="I91" s="15"/>
       <c r="J91" s="15"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" hidden="1">
       <c r="A92" s="6" t="s">
         <v>31</v>
       </c>
@@ -5639,7 +5723,7 @@
       <c r="I92" s="15"/>
       <c r="J92" s="15"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" hidden="1">
       <c r="A93" s="6" t="s">
         <v>30</v>
       </c>
@@ -5665,7 +5749,7 @@
       <c r="I93" s="15"/>
       <c r="J93" s="15"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" hidden="1">
       <c r="A94" s="8" t="s">
         <v>128</v>
       </c>
@@ -5691,7 +5775,7 @@
       <c r="I94" s="15"/>
       <c r="J94" s="15"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" hidden="1">
       <c r="A95" s="8" t="s">
         <v>224</v>
       </c>
@@ -5717,7 +5801,7 @@
       <c r="I95" s="15"/>
       <c r="J95" s="15"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" hidden="1">
       <c r="A96" s="8" t="s">
         <v>124</v>
       </c>
@@ -5745,7 +5829,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" hidden="1">
       <c r="A97" s="8" t="s">
         <v>125</v>
       </c>
@@ -5773,7 +5857,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" hidden="1">
       <c r="A98" s="8" t="s">
         <v>129</v>
       </c>
@@ -6373,7 +6457,7 @@
       <c r="I121" s="15"/>
       <c r="J121" s="15"/>
     </row>
-    <row r="122" spans="1:10" ht="12.75" customHeight="1">
+    <row r="122" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A122" s="6" t="s">
         <v>116</v>
       </c>
@@ -6401,7 +6485,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="12.75" customHeight="1">
+    <row r="123" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A123" s="6" t="s">
         <v>115</v>
       </c>
@@ -6892,10 +6976,10 @@
       </c>
       <c r="I140" s="15"/>
       <c r="J140" s="16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" hidden="1">
       <c r="A141" s="6" t="s">
         <v>32</v>
       </c>
@@ -6921,7 +7005,7 @@
       <c r="I141" s="15"/>
       <c r="J141" s="15"/>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" hidden="1">
       <c r="A142" s="6" t="s">
         <v>34</v>
       </c>
@@ -6947,7 +7031,7 @@
       <c r="I142" s="15"/>
       <c r="J142" s="15"/>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" hidden="1">
       <c r="A143" s="6" t="s">
         <v>35</v>
       </c>
@@ -6973,7 +7057,7 @@
       <c r="I143" s="15"/>
       <c r="J143" s="15"/>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" hidden="1">
       <c r="A144" s="6" t="s">
         <v>37</v>
       </c>
@@ -6999,7 +7083,7 @@
       <c r="I144" s="15"/>
       <c r="J144" s="15"/>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" hidden="1">
       <c r="A145" s="6" t="s">
         <v>36</v>
       </c>
@@ -7395,7 +7479,7 @@
         <v>408</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>406</v>
@@ -7404,16 +7488,14 @@
         <v>43003</v>
       </c>
       <c r="F160" s="28" t="s">
-        <v>409</v>
-      </c>
-      <c r="G160" s="35" t="s">
-        <v>428</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="G160" s="35"/>
       <c r="H160" s="15" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="I160" s="15"/>
-      <c r="J160" s="15"/>
+      <c r="J160" s="16"/>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="15" t="s">
@@ -7423,7 +7505,7 @@
         <v>121</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>78</v>
@@ -7432,90 +7514,90 @@
         <v>43003</v>
       </c>
       <c r="F161" s="28" t="s">
-        <v>409</v>
-      </c>
-      <c r="G161" s="35" t="s">
-        <v>415</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="G161" s="35"/>
       <c r="H161" s="15" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="I161" s="15"/>
-      <c r="J161" s="15"/>
+      <c r="J161" s="16"/>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C162" s="15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E162" s="14">
         <v>43027</v>
       </c>
       <c r="F162" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="G162" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="H162" s="15" t="s">
         <v>429</v>
-      </c>
-      <c r="G162" s="35"/>
-      <c r="H162" s="15" t="s">
-        <v>431</v>
       </c>
       <c r="I162" s="15"/>
       <c r="J162" s="15"/>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E163" s="14">
         <v>43027</v>
       </c>
       <c r="F163" s="28" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="G163" s="35"/>
       <c r="H163" s="15" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I163" s="15"/>
       <c r="J163" s="15"/>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E164" s="14">
         <v>43034</v>
       </c>
       <c r="F164" s="28" t="s">
-        <v>429</v>
+        <v>311</v>
       </c>
       <c r="G164" s="35" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="H164" s="15" t="s">
         <v>413</v>
@@ -7525,22 +7607,22 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B165" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="C165" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="C165" s="15" t="s">
+      <c r="D165" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="E165" s="14">
         <v>43034</v>
       </c>
       <c r="F165" s="28" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="G165" s="35"/>
       <c r="H165" s="15" t="s">
@@ -7551,25 +7633,25 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E166" s="14">
         <v>43041</v>
       </c>
       <c r="F166" s="28" t="s">
-        <v>429</v>
+        <v>311</v>
       </c>
       <c r="G166" s="35" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="H166" s="15" t="s">
         <v>413</v>
@@ -7579,25 +7661,25 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B167" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="C167" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="B167" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="C167" s="15" t="s">
-        <v>422</v>
-      </c>
       <c r="D167" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E167" s="14">
         <v>43041</v>
       </c>
       <c r="F167" s="28" t="s">
-        <v>429</v>
+        <v>311</v>
       </c>
       <c r="G167" s="35" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="H167" s="15" t="s">
         <v>413</v>
@@ -7605,12 +7687,78 @@
       <c r="I167" s="15"/>
       <c r="J167" s="15"/>
     </row>
+    <row r="168" spans="1:10">
+      <c r="A168" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="C168" s="27">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E168" s="14">
+        <v>43047</v>
+      </c>
+      <c r="F168" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="G168" s="35"/>
+      <c r="H168" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="I168" s="15"/>
+      <c r="J168" s="15"/>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="C169" s="15"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="14">
+        <v>43055</v>
+      </c>
+      <c r="F169" s="28"/>
+      <c r="G169" s="35"/>
+      <c r="H169" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="I169" s="15"/>
+      <c r="J169" s="15"/>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="B170" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="C170" s="15"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="14">
+        <v>43055</v>
+      </c>
+      <c r="F170" s="28"/>
+      <c r="G170" s="35"/>
+      <c r="H170" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="I170" s="15"/>
+      <c r="J170" s="15"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:J167">
+  <autoFilter ref="A2:J170">
     <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+      <filters>
+        <dateGroupItem year="2017" dateTimeGrouping="year"/>
+      </filters>
     </filterColumn>
     <sortState ref="A61:J138">
       <sortCondition ref="E2:E150"/>

--- a/DV7 Devices Support List.xlsx
+++ b/DV7 Devices Support List.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="448">
   <si>
     <t>C2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,10 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DGS-1100-26/ME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DGS-1100-24P/ME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -489,14 +485,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DGS-3630-28TC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DGS-3630-52TC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A1/B1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -622,10 +610,6 @@
   </si>
   <si>
     <t>Jeff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMC-1002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1502,10 +1486,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DGS-1210-26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DGS-1210-28P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1515,10 +1495,6 @@
   </si>
   <si>
     <t>DGS-1210-52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DGS-1210-52MP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1838,10 +1814,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>restore need to manually reboot(Device problem)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>restore failed(Device problem)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1855,10 +1827,6 @@
   </si>
   <si>
     <t>DGS-1510-28LP/ME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DGS-3630-28SC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1950,19 +1918,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DGS-1100-05PD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DGS-1100-08</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DGS-1100-08P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DGS-1100-08PD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2203,18 +2163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.3.0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3.0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3.0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>v1.05rc029</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2327,10 +2275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DXS-1210-10TS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DXS-1210-12TC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2351,14 +2295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.3.0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3.1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DXS-1210-16TC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2371,10 +2307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DGS-3630-28PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2400,14 +2332,6 @@
   </si>
   <si>
     <t>设备Upgrade时需要自动选择适当的Next Boot Image和devFwOperationImageId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3.2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DGS-3630-52PC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2505,10 +2429,6 @@
   </si>
   <si>
     <t>2.00.B021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3.3.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2605,6 +2525,97 @@
   </si>
   <si>
     <t>设备Upgrade时，进行TFTP传FW文件会由于设备重复回应确认包导致传输中断，和PP正在确认是否支持DHCP功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.2.0</t>
+  </si>
+  <si>
+    <t>1.3.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DGS-1210-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DGS-1210-52MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMC-1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DXS-1210-10TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DGS-3630-28PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DGS-3630-52PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.x.x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restore need to manually reboot(Device problem)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DGS-1100-26/ME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DGS-3630-28SC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DGS-3630-28TC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DGS-3630-52TC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DGS-1100-05PD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.00.016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DGS-1100-08PD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3316,10 +3327,10 @@
   <dimension ref="A1:M170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B156" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G166" sqref="G166"/>
+      <selection pane="bottomRight" activeCell="G175" sqref="G175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
@@ -3331,7 +3342,7 @@
     <col min="5" max="5" width="11.625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" style="13"/>
     <col min="7" max="7" width="62.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.75" style="4"/>
     <col min="10" max="10" width="43.125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.75" style="4"/>
@@ -3339,10 +3350,10 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
@@ -3358,122 +3369,122 @@
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A3" s="24" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="19">
         <v>42695</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" s="14">
         <v>42731</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="14">
         <v>42690</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>25</v>
@@ -3482,26 +3493,26 @@
         <v>42724</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="16" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>29</v>
@@ -3510,52 +3521,52 @@
         <v>42689</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="16" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="14">
         <v>42709</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>25</v>
@@ -3564,26 +3575,26 @@
         <v>42720</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="16" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>29</v>
@@ -3592,26 +3603,26 @@
         <v>42663</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>25</v>
@@ -3620,24 +3631,24 @@
         <v>42685</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>1</v>
@@ -3646,53 +3657,53 @@
         <v>42723</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="16" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="14">
         <v>42698</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>25</v>
@@ -3701,26 +3712,26 @@
         <v>42730</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>29</v>
@@ -3729,52 +3740,52 @@
         <v>42689</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="15" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:12" hidden="1">
       <c r="A16" s="8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="14">
         <v>42703</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="1:13" ht="38.25" hidden="1">
       <c r="A17" s="8" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>25</v>
@@ -3783,53 +3794,53 @@
         <v>42726</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="16" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:13" hidden="1">
       <c r="A18" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="14">
         <v>42706</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:13" ht="38.25" hidden="1" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>25</v>
@@ -3838,156 +3849,156 @@
         <v>42733</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="16" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="38.25" hidden="1" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="14">
         <v>42717</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
     </row>
     <row r="21" spans="1:13" ht="12.75" hidden="1" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="14">
         <v>42712</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
     </row>
     <row r="22" spans="1:13" ht="12.75" hidden="1" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="16" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E24" s="14">
         <v>42793</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>4</v>
@@ -3996,50 +4007,50 @@
         <v>42793</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" hidden="1" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:13" ht="12.75" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>5</v>
@@ -4048,37 +4059,37 @@
         <v>42793</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
     </row>
     <row r="28" spans="1:13" ht="12.75" hidden="1" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
@@ -4088,10 +4099,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>1</v>
@@ -4100,218 +4111,218 @@
         <v>42793</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
     </row>
     <row r="30" spans="1:13" ht="12.75" hidden="1" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
     </row>
     <row r="31" spans="1:13" ht="12.75" hidden="1" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
     </row>
     <row r="32" spans="1:13" hidden="1">
       <c r="A32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
     </row>
     <row r="33" spans="1:10" hidden="1">
       <c r="A33" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
     </row>
     <row r="36" spans="1:10" hidden="1">
       <c r="A36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
     </row>
     <row r="37" spans="1:10" hidden="1">
       <c r="A37" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="15" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>25</v>
@@ -4320,130 +4331,130 @@
         <v>42751</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E39" s="14">
         <v>42772</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="20" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E40" s="14">
         <v>42758</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E41" s="14">
         <v>42780</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="15" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E42" s="14">
         <v>42783</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="15" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>25</v>
@@ -4452,24 +4463,24 @@
         <v>42751</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="15" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>25</v>
@@ -4478,373 +4489,373 @@
         <v>42751</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="15" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="15"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="E45" s="14">
         <v>42788</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="15" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="15"/>
     </row>
     <row r="46" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="15"/>
     </row>
     <row r="47" spans="1:10" hidden="1">
       <c r="A47" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
     </row>
     <row r="48" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
     </row>
     <row r="49" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
     </row>
     <row r="50" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E50" s="15"/>
       <c r="F50" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
     </row>
     <row r="51" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I51" s="15"/>
       <c r="J51" s="15"/>
     </row>
     <row r="52" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="20" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I52" s="15"/>
       <c r="J52" s="15"/>
     </row>
     <row r="53" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A53" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E53" s="15"/>
       <c r="F53" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G53" s="15"/>
       <c r="H53" s="20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I53" s="15"/>
       <c r="J53" s="15"/>
     </row>
     <row r="54" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A54" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E54" s="15"/>
       <c r="F54" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I54" s="15"/>
       <c r="J54" s="15"/>
     </row>
     <row r="55" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="15" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
     </row>
     <row r="56" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A56" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I56" s="15"/>
       <c r="J56" s="15"/>
     </row>
     <row r="57" spans="1:10" hidden="1">
       <c r="A57" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E57" s="15"/>
       <c r="F57" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G57" s="15"/>
       <c r="H57" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I57" s="15"/>
       <c r="J57" s="15"/>
     </row>
     <row r="58" spans="1:10" hidden="1">
       <c r="A58" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E58" s="15"/>
       <c r="F58" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G58" s="15"/>
       <c r="H58" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I58" s="15"/>
       <c r="J58" s="15"/>
     </row>
     <row r="59" spans="1:10" hidden="1">
       <c r="A59" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G59" s="15"/>
       <c r="H59" s="15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I59" s="15"/>
       <c r="J59" s="15"/>
@@ -4854,10 +4865,10 @@
         <v>24</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>25</v>
@@ -4866,15 +4877,15 @@
         <v>42835</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G60" s="15"/>
       <c r="H60" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I60" s="15"/>
       <c r="J60" s="16" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="114.75">
@@ -4882,10 +4893,10 @@
         <v>26</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>25</v>
@@ -4894,17 +4905,17 @@
         <v>42835</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>312</v>
+        <v>440</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I61" s="15"/>
       <c r="J61" s="16" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="12.75" customHeight="1">
@@ -4912,10 +4923,10 @@
         <v>41</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>29</v>
@@ -4924,17 +4935,17 @@
         <v>42835</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I62" s="15"/>
       <c r="J62" s="16" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="51">
@@ -4942,10 +4953,10 @@
         <v>42</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>29</v>
@@ -4954,28 +4965,28 @@
         <v>42835</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I63" s="15"/>
       <c r="J63" s="16" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>29</v>
@@ -4984,24 +4995,24 @@
         <v>42943</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G64" s="15"/>
       <c r="H64" s="20" t="s">
-        <v>381</v>
+        <v>287</v>
       </c>
       <c r="I64" s="15"/>
       <c r="J64" s="16"/>
     </row>
     <row r="65" spans="1:10" ht="51">
       <c r="A65" s="6" t="s">
-        <v>43</v>
+        <v>441</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>29</v>
@@ -5010,28 +5021,28 @@
         <v>42835</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>293</v>
+        <v>439</v>
       </c>
       <c r="I65" s="15"/>
       <c r="J65" s="16" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>0</v>
@@ -5040,11 +5051,11 @@
         <v>42786</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="20" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I66" s="15"/>
       <c r="J66" s="15"/>
@@ -5054,10 +5065,10 @@
         <v>40</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>29</v>
@@ -5066,112 +5077,112 @@
         <v>42835</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I67" s="15"/>
       <c r="J67" s="16" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1">
       <c r="A68" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E68" s="14">
         <v>42842</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
     </row>
     <row r="69" spans="1:10" ht="12.75" customHeight="1">
       <c r="A69" s="6" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E69" s="14">
         <v>42842</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="6" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E70" s="14">
         <v>42842</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H70" s="26" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>1</v>
@@ -5180,11 +5191,11 @@
         <v>42786</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G71" s="15"/>
       <c r="H71" s="20" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I71" s="15"/>
       <c r="J71" s="15"/>
@@ -5194,10 +5205,10 @@
         <v>2</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>0</v>
@@ -5206,39 +5217,39 @@
         <v>42786</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G72" s="15"/>
       <c r="H72" s="20" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I72" s="15"/>
       <c r="J72" s="15"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E73" s="14">
         <v>42842</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G73" s="25" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H73" s="26" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
@@ -5248,10 +5259,10 @@
         <v>3</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>1</v>
@@ -5260,11 +5271,11 @@
         <v>42786</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G74" s="15"/>
       <c r="H74" s="15" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I74" s="15"/>
       <c r="J74" s="15"/>
@@ -5274,10 +5285,10 @@
         <v>9</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>8</v>
@@ -5286,11 +5297,11 @@
         <v>42800</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="20" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I75" s="15"/>
       <c r="J75" s="15"/>
@@ -5300,10 +5311,10 @@
         <v>10</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>8</v>
@@ -5312,11 +5323,11 @@
         <v>42800</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G76" s="15"/>
       <c r="H76" s="15" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I76" s="15"/>
       <c r="J76" s="15"/>
@@ -5326,10 +5337,10 @@
         <v>11</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>8</v>
@@ -5338,11 +5349,11 @@
         <v>42800</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G77" s="15"/>
       <c r="H77" s="20" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I77" s="15"/>
       <c r="J77" s="15"/>
@@ -5352,7 +5363,7 @@
         <v>13</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>7</v>
@@ -5364,13 +5375,13 @@
         <v>42800</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="I78" s="15"/>
       <c r="J78" s="15"/>
@@ -5380,10 +5391,10 @@
         <v>15</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>8</v>
@@ -5392,11 +5403,11 @@
         <v>42800</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G79" s="15"/>
       <c r="H79" s="20" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I79" s="15"/>
       <c r="J79" s="15"/>
@@ -5406,7 +5417,7 @@
         <v>19</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>7</v>
@@ -5418,85 +5429,85 @@
         <v>42800</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="I80" s="15"/>
       <c r="J80" s="15"/>
     </row>
     <row r="81" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I81" s="15"/>
       <c r="J81" s="15"/>
     </row>
     <row r="82" spans="1:10" hidden="1">
       <c r="A82" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I82" s="15"/>
       <c r="J82" s="15"/>
     </row>
     <row r="83" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A83" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G83" s="15"/>
       <c r="H83" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I83" s="15"/>
       <c r="J83" s="15"/>
@@ -5506,21 +5517,21 @@
         <v>12</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G84" s="15"/>
       <c r="H84" s="15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I84" s="15"/>
       <c r="J84" s="15"/>
@@ -5530,21 +5541,21 @@
         <v>16</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G85" s="15"/>
       <c r="H85" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I85" s="15"/>
       <c r="J85" s="15"/>
@@ -5554,21 +5565,21 @@
         <v>14</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G86" s="15"/>
       <c r="H86" s="20" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I86" s="15"/>
       <c r="J86" s="15"/>
@@ -5578,21 +5589,21 @@
         <v>17</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G87" s="15"/>
       <c r="H87" s="15" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I87" s="15"/>
       <c r="J87" s="15"/>
@@ -5602,21 +5613,21 @@
         <v>18</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E88" s="15"/>
       <c r="F88" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G88" s="15"/>
       <c r="H88" s="15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I88" s="15"/>
       <c r="J88" s="15"/>
@@ -5626,21 +5637,21 @@
         <v>20</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E89" s="15"/>
       <c r="F89" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G89" s="15"/>
       <c r="H89" s="20" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I89" s="15"/>
       <c r="J89" s="15"/>
@@ -5650,7 +5661,7 @@
         <v>38</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>39</v>
@@ -5662,11 +5673,11 @@
         <v>42545</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G90" s="15"/>
       <c r="H90" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I90" s="15"/>
       <c r="J90" s="15"/>
@@ -5676,10 +5687,10 @@
         <v>27</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>29</v>
@@ -5688,11 +5699,11 @@
         <v>42552</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G91" s="15"/>
       <c r="H91" s="15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I91" s="15"/>
       <c r="J91" s="15"/>
@@ -5702,7 +5713,7 @@
         <v>31</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>28</v>
@@ -5714,11 +5725,11 @@
         <v>42552</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G92" s="15"/>
       <c r="H92" s="15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I92" s="15"/>
       <c r="J92" s="15"/>
@@ -5728,7 +5739,7 @@
         <v>30</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>28</v>
@@ -5740,632 +5751,632 @@
         <v>42552</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G93" s="15"/>
       <c r="H93" s="15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I93" s="15"/>
       <c r="J93" s="15"/>
     </row>
     <row r="94" spans="1:10" hidden="1">
       <c r="A94" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E94" s="14">
         <v>42674</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G94" s="15"/>
       <c r="H94" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I94" s="15"/>
       <c r="J94" s="15"/>
     </row>
     <row r="95" spans="1:10" hidden="1">
       <c r="A95" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E95" s="14">
         <v>42677</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G95" s="16"/>
       <c r="H95" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I95" s="15"/>
       <c r="J95" s="15"/>
     </row>
     <row r="96" spans="1:10" hidden="1">
       <c r="A96" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E96" s="14">
         <v>42655</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G96" s="16"/>
       <c r="H96" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I96" s="15"/>
       <c r="J96" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:10" hidden="1">
       <c r="A97" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E97" s="14">
         <v>42660</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G97" s="16"/>
       <c r="H97" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I97" s="15"/>
       <c r="J97" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:10" hidden="1">
       <c r="A98" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E98" s="14">
         <v>42682</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G98" s="15"/>
       <c r="H98" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I98" s="15"/>
       <c r="J98" s="15"/>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E99" s="14">
         <v>42772</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G99" s="15"/>
       <c r="H99" s="20" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I99" s="15"/>
       <c r="J99" s="15"/>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E100" s="14">
         <v>42772</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G100" s="15"/>
       <c r="H100" s="15" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I100" s="15"/>
       <c r="J100" s="15"/>
     </row>
     <row r="101" spans="1:10" ht="12.75" customHeight="1">
       <c r="A101" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E101" s="14">
         <v>42772</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G101" s="15"/>
       <c r="H101" s="20" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I101" s="15"/>
       <c r="J101" s="15"/>
     </row>
     <row r="102" spans="1:10" ht="12.75" customHeight="1">
       <c r="A102" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E102" s="14">
         <v>42842</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G102" s="6"/>
       <c r="H102" s="6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
     </row>
     <row r="103" spans="1:10" ht="12.75" customHeight="1">
       <c r="A103" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E103" s="14">
         <v>42842</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G103" s="6"/>
       <c r="H103" s="26" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
     </row>
     <row r="104" spans="1:10" ht="12.75" customHeight="1">
       <c r="A104" s="15" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E104" s="14">
         <v>42852</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G104" s="15"/>
       <c r="H104" s="15" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="I104" s="15"/>
       <c r="J104" s="15"/>
     </row>
     <row r="105" spans="1:10" ht="12.75" customHeight="1">
       <c r="A105" s="15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E105" s="14">
         <v>42852</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G105" s="15"/>
       <c r="H105" s="15" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="I105" s="15"/>
       <c r="J105" s="15"/>
     </row>
     <row r="106" spans="1:10" ht="12.75" customHeight="1">
       <c r="A106" s="15" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E106" s="14">
         <v>42852</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G106" s="15"/>
       <c r="H106" s="15" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="I106" s="15"/>
       <c r="J106" s="15"/>
     </row>
     <row r="107" spans="1:10" ht="12.75" customHeight="1">
       <c r="A107" s="15" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E107" s="14">
         <v>42852</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G107" s="15"/>
       <c r="H107" s="15" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="I107" s="15"/>
       <c r="J107" s="15"/>
     </row>
     <row r="108" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A108" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="E108" s="15"/>
       <c r="F108" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G108" s="15"/>
       <c r="H108" s="15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I108" s="15"/>
       <c r="J108" s="15"/>
     </row>
     <row r="109" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A109" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E109" s="15"/>
       <c r="F109" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G109" s="15"/>
       <c r="H109" s="15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I109" s="15"/>
       <c r="J109" s="15"/>
     </row>
     <row r="110" spans="1:10" hidden="1">
       <c r="A110" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E110" s="15"/>
       <c r="F110" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G110" s="15"/>
       <c r="H110" s="15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I110" s="15"/>
       <c r="J110" s="15"/>
     </row>
     <row r="111" spans="1:10" hidden="1">
       <c r="A111" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E111" s="15"/>
       <c r="F111" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G111" s="15"/>
       <c r="H111" s="15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I111" s="15"/>
       <c r="J111" s="15"/>
     </row>
     <row r="112" spans="1:10" hidden="1">
       <c r="A112" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E112" s="15"/>
       <c r="F112" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G112" s="15"/>
       <c r="H112" s="15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
     </row>
     <row r="113" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A113" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E113" s="15"/>
       <c r="F113" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G113" s="15"/>
       <c r="H113" s="15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
     </row>
     <row r="114" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A114" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E114" s="15"/>
       <c r="F114" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G114" s="15"/>
       <c r="H114" s="15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I114" s="15"/>
       <c r="J114" s="15"/>
     </row>
     <row r="115" spans="1:10" ht="10.5" hidden="1" customHeight="1">
       <c r="A115" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C115" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B115" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C115" s="8" t="s">
+      <c r="D115" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="E115" s="15"/>
       <c r="F115" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G115" s="15"/>
       <c r="H115" s="20" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I115" s="15"/>
       <c r="J115" s="15"/>
     </row>
     <row r="116" spans="1:10" hidden="1">
       <c r="A116" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E116" s="15"/>
       <c r="F116" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G116" s="15"/>
       <c r="H116" s="15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I116" s="15"/>
       <c r="J116" s="15"/>
     </row>
     <row r="117" spans="1:10" hidden="1">
       <c r="A117" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E117" s="15"/>
       <c r="F117" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G117" s="15"/>
       <c r="H117" s="15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I117" s="15"/>
       <c r="J117" s="15"/>
     </row>
     <row r="118" spans="1:10" ht="76.5">
       <c r="A118" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>25</v>
@@ -6374,98 +6385,98 @@
         <v>42772</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G118" s="16"/>
       <c r="H118" s="15" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I118" s="15"/>
       <c r="J118" s="16" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119" spans="1:10" hidden="1">
       <c r="A119" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E119" s="15"/>
       <c r="F119" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G119" s="15"/>
       <c r="H119" s="15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
     </row>
     <row r="120" spans="1:10" ht="12" hidden="1" customHeight="1">
       <c r="A120" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E120" s="15"/>
       <c r="F120" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G120" s="15"/>
       <c r="H120" s="20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I120" s="15"/>
       <c r="J120" s="15"/>
     </row>
     <row r="121" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A121" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E121" s="15"/>
       <c r="F121" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G121" s="15"/>
       <c r="H121" s="20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I121" s="15"/>
       <c r="J121" s="15"/>
     </row>
     <row r="122" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A122" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>25</v>
@@ -6474,26 +6485,26 @@
         <v>42730</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G122" s="15"/>
       <c r="H122" s="15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I122" s="15"/>
       <c r="J122" s="15" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A123" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>25</v>
@@ -6502,380 +6513,380 @@
         <v>42725</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G123" s="15"/>
       <c r="H123" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I123" s="15"/>
       <c r="J123" s="15" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A124" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E124" s="15"/>
       <c r="F124" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G124" s="15"/>
       <c r="H124" s="15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I124" s="15"/>
       <c r="J124" s="15"/>
     </row>
     <row r="125" spans="1:10" ht="12.75" hidden="1" customHeight="1">
       <c r="A125" s="6" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E125" s="15"/>
       <c r="F125" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G125" s="15"/>
       <c r="H125" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I125" s="15"/>
       <c r="J125" s="15"/>
     </row>
     <row r="126" spans="1:10" ht="12.75" customHeight="1">
       <c r="A126" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E126" s="14">
         <v>42738</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G126" s="16" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H126" s="15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I126" s="15"/>
       <c r="J126" s="16" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E127" s="14">
         <v>42740</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H127" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I127" s="15"/>
       <c r="J127" s="16" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="12.75" customHeight="1">
       <c r="A128" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E128" s="14">
         <v>42744</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G128" s="16" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H128" s="15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I128" s="15"/>
       <c r="J128" s="16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E129" s="14">
         <v>42746</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H129" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I129" s="15"/>
       <c r="J129" s="16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="12.75" customHeight="1">
       <c r="A130" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E130" s="14">
         <v>42748</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H130" s="15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I130" s="15"/>
       <c r="J130" s="16" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="15" customHeight="1">
       <c r="A131" s="15" t="s">
-        <v>255</v>
+        <v>429</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E131" s="14">
         <v>42852</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G131" s="15"/>
       <c r="H131" s="20" t="s">
-        <v>333</v>
+        <v>431</v>
       </c>
       <c r="I131" s="15"/>
       <c r="J131" s="15"/>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="15" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E132" s="14">
         <v>42852</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G132" s="15"/>
-      <c r="H132" s="15" t="s">
-        <v>333</v>
+      <c r="H132" s="20" t="s">
+        <v>431</v>
       </c>
       <c r="I132" s="15"/>
       <c r="J132" s="15"/>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="15" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E133" s="14">
         <v>42852</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G133" s="15"/>
-      <c r="H133" s="15" t="s">
-        <v>333</v>
+      <c r="H133" s="20" t="s">
+        <v>431</v>
       </c>
       <c r="I133" s="15"/>
       <c r="J133" s="15"/>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="15" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E134" s="14">
         <v>42852</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G134" s="15"/>
-      <c r="H134" s="15" t="s">
-        <v>333</v>
+      <c r="H134" s="20" t="s">
+        <v>431</v>
       </c>
       <c r="I134" s="15"/>
       <c r="J134" s="15"/>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="15" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E135" s="14">
         <v>42852</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G135" s="15"/>
-      <c r="H135" s="15" t="s">
-        <v>333</v>
+      <c r="H135" s="20" t="s">
+        <v>431</v>
       </c>
       <c r="I135" s="15"/>
       <c r="J135" s="15"/>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="15" t="s">
-        <v>259</v>
+        <v>430</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E136" s="14">
         <v>42852</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G136" s="15"/>
-      <c r="H136" s="15" t="s">
-        <v>333</v>
+      <c r="H136" s="20" t="s">
+        <v>431</v>
       </c>
       <c r="I136" s="15"/>
       <c r="J136" s="15"/>
     </row>
     <row r="137" spans="1:10" ht="102">
       <c r="A137" s="8" t="s">
-        <v>317</v>
+        <v>442</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>25</v>
@@ -6884,26 +6895,26 @@
         <v>42772</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G137" s="16"/>
       <c r="H137" s="20" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="I137" s="15"/>
       <c r="J137" s="16" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="22.5" customHeight="1">
       <c r="A138" s="6" t="s">
-        <v>138</v>
+        <v>432</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>29</v>
@@ -6912,26 +6923,26 @@
         <v>42852</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G138" s="15" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H138" s="20" t="s">
-        <v>333</v>
+        <v>433</v>
       </c>
       <c r="I138" s="15"/>
       <c r="J138" s="15"/>
     </row>
     <row r="139" spans="1:10" ht="102">
       <c r="A139" s="8" t="s">
-        <v>104</v>
+        <v>443</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D139" s="9" t="s">
         <v>25</v>
@@ -6940,26 +6951,26 @@
         <v>42772</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G139" s="16"/>
       <c r="H139" s="20" t="s">
-        <v>260</v>
+        <v>425</v>
       </c>
       <c r="I139" s="15"/>
       <c r="J139" s="16" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="102">
       <c r="A140" s="8" t="s">
-        <v>105</v>
+        <v>444</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D140" s="9" t="s">
         <v>25</v>
@@ -6968,15 +6979,15 @@
         <v>42772</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G140" s="16"/>
       <c r="H140" s="20" t="s">
-        <v>260</v>
+        <v>426</v>
       </c>
       <c r="I140" s="15"/>
       <c r="J140" s="16" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
     </row>
     <row r="141" spans="1:10" hidden="1">
@@ -6984,10 +6995,10 @@
         <v>32</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>33</v>
@@ -6996,11 +7007,11 @@
         <v>42545</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G141" s="15"/>
       <c r="H141" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I141" s="15"/>
       <c r="J141" s="15"/>
@@ -7010,10 +7021,10 @@
         <v>34</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>33</v>
@@ -7022,11 +7033,11 @@
         <v>42545</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G142" s="15"/>
       <c r="H142" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I142" s="15"/>
       <c r="J142" s="15"/>
@@ -7036,10 +7047,10 @@
         <v>35</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>33</v>
@@ -7048,11 +7059,11 @@
         <v>42545</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G143" s="15"/>
       <c r="H143" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I143" s="15"/>
       <c r="J143" s="15"/>
@@ -7062,10 +7073,10 @@
         <v>37</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>33</v>
@@ -7074,11 +7085,11 @@
         <v>42545</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G144" s="15"/>
       <c r="H144" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I144" s="15"/>
       <c r="J144" s="15"/>
@@ -7088,10 +7099,10 @@
         <v>36</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>33</v>
@@ -7100,144 +7111,144 @@
         <v>42545</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G145" s="15"/>
       <c r="H145" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I145" s="15"/>
       <c r="J145" s="15"/>
     </row>
     <row r="146" spans="1:10" hidden="1">
       <c r="A146" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E146" s="15"/>
       <c r="F146" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G146" s="15"/>
       <c r="H146" s="20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I146" s="15"/>
       <c r="J146" s="15"/>
     </row>
     <row r="147" spans="1:10" hidden="1">
       <c r="A147" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E147" s="15"/>
       <c r="F147" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G147" s="15"/>
       <c r="H147" s="20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I147" s="15"/>
       <c r="J147" s="15"/>
     </row>
     <row r="148" spans="1:10" hidden="1">
       <c r="A148" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E148" s="15"/>
       <c r="F148" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G148" s="15"/>
       <c r="H148" s="20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I148" s="15"/>
       <c r="J148" s="15"/>
     </row>
     <row r="149" spans="1:10" hidden="1">
       <c r="A149" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E149" s="15"/>
       <c r="F149" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G149" s="15"/>
       <c r="H149" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I149" s="15"/>
       <c r="J149" s="15"/>
     </row>
     <row r="150" spans="1:10" hidden="1">
       <c r="A150" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E150" s="15"/>
       <c r="F150" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G150" s="15"/>
       <c r="H150" s="15" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I150" s="15"/>
       <c r="J150" s="15"/>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="15" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>29</v>
@@ -7246,24 +7257,24 @@
         <v>42866</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G151" s="15"/>
-      <c r="H151" s="15" t="s">
-        <v>333</v>
+      <c r="H151" s="20" t="s">
+        <v>433</v>
       </c>
       <c r="I151" s="15"/>
       <c r="J151" s="15"/>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="15" t="s">
-        <v>337</v>
+        <v>445</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>336</v>
+        <v>446</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>29</v>
@@ -7272,24 +7283,24 @@
         <v>42866</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G152" s="15"/>
-      <c r="H152" s="15" t="s">
-        <v>333</v>
+      <c r="H152" s="20" t="s">
+        <v>433</v>
       </c>
       <c r="I152" s="15"/>
       <c r="J152" s="15"/>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="15" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>29</v>
@@ -7298,24 +7309,24 @@
         <v>42866</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G153" s="15"/>
-      <c r="H153" s="15" t="s">
-        <v>333</v>
+      <c r="H153" s="20" t="s">
+        <v>431</v>
       </c>
       <c r="I153" s="15"/>
       <c r="J153" s="15"/>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="15" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>29</v>
@@ -7324,24 +7335,24 @@
         <v>42866</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G154" s="15"/>
-      <c r="H154" s="15" t="s">
-        <v>333</v>
+      <c r="H154" s="20" t="s">
+        <v>433</v>
       </c>
       <c r="I154" s="15"/>
       <c r="J154" s="15"/>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="15" t="s">
-        <v>340</v>
+        <v>447</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>29</v>
@@ -7350,349 +7361,349 @@
         <v>42871</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G155" s="15"/>
-      <c r="H155" s="15" t="s">
-        <v>400</v>
+      <c r="H155" s="20" t="s">
+        <v>433</v>
       </c>
       <c r="I155" s="15"/>
       <c r="J155" s="15"/>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="15" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="E156" s="14">
         <v>42996</v>
       </c>
       <c r="F156" s="28" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="G156" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="H156" s="15" t="s">
         <v>410</v>
-      </c>
-      <c r="H156" s="15" t="s">
-        <v>401</v>
       </c>
       <c r="I156" s="15"/>
       <c r="J156" s="15"/>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="15" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="E157" s="14">
         <v>42996</v>
       </c>
       <c r="F157" s="28" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="G157" s="35" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="H157" s="15" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="I157" s="15"/>
       <c r="J157" s="15"/>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="15" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="E158" s="14">
         <v>42996</v>
       </c>
       <c r="F158" s="28" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="G158" s="35" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="H158" s="15" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="I158" s="15"/>
       <c r="J158" s="15"/>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="15" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E159" s="14">
         <v>42996</v>
       </c>
       <c r="F159" s="28" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="G159" s="35" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="H159" s="15" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="I159" s="15"/>
       <c r="J159" s="15"/>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="15" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="E160" s="14">
         <v>43003</v>
       </c>
       <c r="F160" s="28" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G160" s="35"/>
       <c r="H160" s="15" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="I160" s="15"/>
       <c r="J160" s="16"/>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="15" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E161" s="14">
         <v>43003</v>
       </c>
       <c r="F161" s="28" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G161" s="35"/>
       <c r="H161" s="15" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="I161" s="15"/>
       <c r="J161" s="16"/>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="15" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="C162" s="15" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="E162" s="14">
         <v>43027</v>
       </c>
       <c r="F162" s="28" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G162" s="35" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="H162" s="15" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="I162" s="15"/>
       <c r="J162" s="15"/>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="15" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="E163" s="14">
         <v>43027</v>
       </c>
       <c r="F163" s="28" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="G163" s="35"/>
       <c r="H163" s="15" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="I163" s="15"/>
       <c r="J163" s="15"/>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="15" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="E164" s="14">
         <v>43034</v>
       </c>
       <c r="F164" s="28" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G164" s="35" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="H164" s="15" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="I164" s="15"/>
       <c r="J164" s="15"/>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="15" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="E165" s="14">
         <v>43034</v>
       </c>
       <c r="F165" s="28" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="G165" s="35"/>
       <c r="H165" s="15" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="I165" s="15"/>
       <c r="J165" s="15"/>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="15" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="E166" s="14">
         <v>43041</v>
       </c>
       <c r="F166" s="28" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G166" s="35" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="H166" s="15" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="I166" s="15"/>
       <c r="J166" s="15"/>
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="15" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="E167" s="14">
         <v>43041</v>
       </c>
       <c r="F167" s="28" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G167" s="35" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="H167" s="15" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="I167" s="15"/>
       <c r="J167" s="15"/>
     </row>
     <row r="168" spans="1:10">
       <c r="A168" s="15" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="C168" s="27">
         <v>2.0299999999999998</v>
@@ -7704,21 +7715,21 @@
         <v>43047</v>
       </c>
       <c r="F168" s="28" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="G168" s="35"/>
       <c r="H168" s="15" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="I168" s="15"/>
       <c r="J168" s="15"/>
     </row>
     <row r="169" spans="1:10">
       <c r="A169" s="15" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="C169" s="15"/>
       <c r="D169" s="7"/>
@@ -7728,17 +7739,17 @@
       <c r="F169" s="28"/>
       <c r="G169" s="35"/>
       <c r="H169" s="15" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="I169" s="15"/>
       <c r="J169" s="15"/>
     </row>
     <row r="170" spans="1:10">
       <c r="A170" s="15" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="C170" s="15"/>
       <c r="D170" s="7"/>
@@ -7748,7 +7759,7 @@
       <c r="F170" s="28"/>
       <c r="G170" s="35"/>
       <c r="H170" s="15" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="I170" s="15"/>
       <c r="J170" s="15"/>
@@ -7788,7 +7799,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7800,10 +7811,10 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="15">
       <c r="A1" s="29" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -7816,368 +7827,368 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="30" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="27" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E3" s="33">
         <v>42948</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="27" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E4" s="33">
         <v>42954</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="27" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E5" s="33">
         <v>42954</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" ht="48.75">
       <c r="A6" s="27" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E6" s="33">
         <v>42961</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:10" ht="48.75">
       <c r="A7" s="27" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E7" s="33">
         <v>42961</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="27" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E8" s="33">
         <v>42968</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="27" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E9" s="33">
         <v>42968</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:10" ht="48.75">
       <c r="A10" s="27" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E10" s="33">
         <v>42975</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="27" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E11" s="33">
         <v>42975</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="27" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E12" s="33">
         <v>42982</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:10" ht="48.75">
       <c r="A13" s="27" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E13" s="33">
         <v>42982</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10" ht="48.75">
       <c r="A14" s="27" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E14" s="33">
         <v>42989</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>

--- a/DV7 Devices Support List.xlsx
+++ b/DV7 Devices Support List.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Wireless" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Switch!$A$2:$J$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Switch!$A$2:$J$169</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="452">
   <si>
     <t>C2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2405,10 +2405,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>testing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>4.00.015/</t>
     </r>
@@ -2488,10 +2484,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DSR-500AC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Jeff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2579,10 +2571,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.3.x.x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.3.0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2616,6 +2604,34 @@
   </si>
   <si>
     <t>DGS-1100-08PD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备SOID和DGS-1100-10/ME的SOID有冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.11_WW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备SSH开启时，设备执行FW Upgrade后设备IP变化，SSH自动关闭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3324,13 +3340,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M170"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B169" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G175" sqref="G175"/>
+      <selection pane="bottomRight" activeCell="H173" sqref="H173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
@@ -4908,7 +4924,7 @@
         <v>305</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H61" s="15" t="s">
         <v>287</v>
@@ -5006,7 +5022,7 @@
     </row>
     <row r="65" spans="1:10" ht="51">
       <c r="A65" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>118</v>
@@ -5027,7 +5043,7 @@
         <v>306</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I65" s="15"/>
       <c r="J65" s="16" t="s">
@@ -6724,7 +6740,7 @@
     </row>
     <row r="131" spans="1:10" ht="15" customHeight="1">
       <c r="A131" s="15" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B131" s="15" t="s">
         <v>117</v>
@@ -6743,7 +6759,7 @@
       </c>
       <c r="G131" s="15"/>
       <c r="H131" s="20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I131" s="15"/>
       <c r="J131" s="15"/>
@@ -6769,7 +6785,7 @@
       </c>
       <c r="G132" s="15"/>
       <c r="H132" s="20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I132" s="15"/>
       <c r="J132" s="15"/>
@@ -6795,7 +6811,7 @@
       </c>
       <c r="G133" s="15"/>
       <c r="H133" s="20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I133" s="15"/>
       <c r="J133" s="15"/>
@@ -6821,7 +6837,7 @@
       </c>
       <c r="G134" s="15"/>
       <c r="H134" s="20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I134" s="15"/>
       <c r="J134" s="15"/>
@@ -6847,14 +6863,14 @@
       </c>
       <c r="G135" s="15"/>
       <c r="H135" s="20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I135" s="15"/>
       <c r="J135" s="15"/>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B136" s="15" t="s">
         <v>117</v>
@@ -6873,14 +6889,14 @@
       </c>
       <c r="G136" s="15"/>
       <c r="H136" s="20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I136" s="15"/>
       <c r="J136" s="15"/>
     </row>
     <row r="137" spans="1:10" ht="102">
       <c r="A137" s="8" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>118</v>
@@ -6908,7 +6924,7 @@
     </row>
     <row r="138" spans="1:10" ht="22.5" customHeight="1">
       <c r="A138" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>117</v>
@@ -6929,14 +6945,14 @@
         <v>284</v>
       </c>
       <c r="H138" s="20" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I138" s="15"/>
       <c r="J138" s="15"/>
     </row>
     <row r="139" spans="1:10" ht="102">
       <c r="A139" s="8" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>118</v>
@@ -6955,7 +6971,7 @@
       </c>
       <c r="G139" s="16"/>
       <c r="H139" s="20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I139" s="15"/>
       <c r="J139" s="16" t="s">
@@ -6964,7 +6980,7 @@
     </row>
     <row r="140" spans="1:10" ht="102">
       <c r="A140" s="8" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>118</v>
@@ -6983,11 +6999,11 @@
       </c>
       <c r="G140" s="16"/>
       <c r="H140" s="20" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I140" s="15"/>
       <c r="J140" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="141" spans="1:10" hidden="1">
@@ -7261,20 +7277,20 @@
       </c>
       <c r="G151" s="15"/>
       <c r="H151" s="20" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I151" s="15"/>
       <c r="J151" s="15"/>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="15" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B152" s="15" t="s">
         <v>118</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>29</v>
@@ -7287,7 +7303,7 @@
       </c>
       <c r="G152" s="15"/>
       <c r="H152" s="20" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I152" s="15"/>
       <c r="J152" s="15"/>
@@ -7313,7 +7329,7 @@
       </c>
       <c r="G153" s="15"/>
       <c r="H153" s="20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I153" s="15"/>
       <c r="J153" s="15"/>
@@ -7339,14 +7355,14 @@
       </c>
       <c r="G154" s="15"/>
       <c r="H154" s="20" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I154" s="15"/>
       <c r="J154" s="15"/>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="15" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B155" s="15" t="s">
         <v>118</v>
@@ -7365,14 +7381,14 @@
       </c>
       <c r="G155" s="15"/>
       <c r="H155" s="20" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I155" s="15"/>
       <c r="J155" s="15"/>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="15" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B156" s="15" t="s">
         <v>383</v>
@@ -7393,7 +7409,7 @@
         <v>393</v>
       </c>
       <c r="H156" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I156" s="15"/>
       <c r="J156" s="15"/>
@@ -7421,7 +7437,7 @@
         <v>388</v>
       </c>
       <c r="H157" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I157" s="15"/>
       <c r="J157" s="15"/>
@@ -7449,7 +7465,7 @@
         <v>394</v>
       </c>
       <c r="H158" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I158" s="15"/>
       <c r="J158" s="15"/>
@@ -7477,20 +7493,20 @@
         <v>395</v>
       </c>
       <c r="H159" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I159" s="15"/>
       <c r="J159" s="15"/>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B160" s="15" t="s">
         <v>391</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>389</v>
@@ -7503,20 +7519,20 @@
       </c>
       <c r="G160" s="35"/>
       <c r="H160" s="15" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I160" s="15"/>
       <c r="J160" s="16"/>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="15" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B161" s="15" t="s">
         <v>118</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>77</v>
@@ -7529,7 +7545,7 @@
       </c>
       <c r="G161" s="35"/>
       <c r="H161" s="15" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I161" s="15"/>
       <c r="J161" s="16"/>
@@ -7542,7 +7558,7 @@
         <v>396</v>
       </c>
       <c r="C162" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>404</v>
@@ -7554,10 +7570,10 @@
         <v>305</v>
       </c>
       <c r="G162" s="35" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H162" s="15" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I162" s="15"/>
       <c r="J162" s="15"/>
@@ -7579,11 +7595,11 @@
         <v>43027</v>
       </c>
       <c r="F163" s="28" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G163" s="35"/>
       <c r="H163" s="15" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I163" s="15"/>
       <c r="J163" s="15"/>
@@ -7608,10 +7624,10 @@
         <v>305</v>
       </c>
       <c r="G164" s="35" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H164" s="15" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I164" s="15"/>
       <c r="J164" s="15"/>
@@ -7633,11 +7649,11 @@
         <v>43034</v>
       </c>
       <c r="F165" s="28" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G165" s="35"/>
       <c r="H165" s="15" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I165" s="15"/>
       <c r="J165" s="15"/>
@@ -7659,13 +7675,13 @@
         <v>43041</v>
       </c>
       <c r="F166" s="28" t="s">
-        <v>305</v>
+        <v>445</v>
       </c>
       <c r="G166" s="35" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H166" s="15" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I166" s="15"/>
       <c r="J166" s="15"/>
@@ -7687,23 +7703,23 @@
         <v>43041</v>
       </c>
       <c r="F167" s="28" t="s">
-        <v>305</v>
+        <v>445</v>
       </c>
       <c r="G167" s="35" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H167" s="15" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I167" s="15"/>
       <c r="J167" s="15"/>
     </row>
     <row r="168" spans="1:10">
       <c r="A168" s="15" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C168" s="27">
         <v>2.0299999999999998</v>
@@ -7715,57 +7731,47 @@
         <v>43047</v>
       </c>
       <c r="F168" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="G168" s="35"/>
+        <v>445</v>
+      </c>
+      <c r="G168" s="35" t="s">
+        <v>449</v>
+      </c>
       <c r="H168" s="15" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="I168" s="15"/>
       <c r="J168" s="15"/>
     </row>
     <row r="169" spans="1:10">
       <c r="A169" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="C169" s="15"/>
-      <c r="D169" s="7"/>
+        <v>414</v>
+      </c>
+      <c r="C169" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>447</v>
+      </c>
       <c r="E169" s="14">
         <v>43055</v>
       </c>
-      <c r="F169" s="28"/>
-      <c r="G169" s="35"/>
+      <c r="F169" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="G169" s="35" t="s">
+        <v>451</v>
+      </c>
       <c r="H169" s="15" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="I169" s="15"/>
       <c r="J169" s="15"/>
     </row>
-    <row r="170" spans="1:10">
-      <c r="A170" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="B170" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="C170" s="15"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="14">
-        <v>43055</v>
-      </c>
-      <c r="F170" s="28"/>
-      <c r="G170" s="35"/>
-      <c r="H170" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="I170" s="15"/>
-      <c r="J170" s="15"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:J170">
+  <autoFilter ref="A2:J169">
     <filterColumn colId="4">
       <filters>
         <dateGroupItem year="2017" dateTimeGrouping="year"/>
@@ -7880,7 +7886,7 @@
         <v>372</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
@@ -7908,7 +7914,7 @@
         <v>372</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
@@ -7936,7 +7942,7 @@
         <v>372</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
@@ -7964,7 +7970,7 @@
         <v>380</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
@@ -7992,7 +7998,7 @@
         <v>374</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
@@ -8020,7 +8026,7 @@
         <v>372</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
@@ -8048,7 +8054,7 @@
         <v>372</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
@@ -8076,7 +8082,7 @@
         <v>378</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
@@ -8104,7 +8110,7 @@
         <v>372</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
@@ -8132,7 +8138,7 @@
         <v>372</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
@@ -8160,7 +8166,7 @@
         <v>376</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
@@ -8188,7 +8194,7 @@
         <v>377</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>

--- a/DV7 Devices Support List.xlsx
+++ b/DV7 Devices Support List.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="470">
   <si>
     <t>C2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2087,39 +2087,24 @@
     <t>Jovi</t>
   </si>
   <si>
-    <t>v1.15rc093</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>DAP-2695</t>
   </si>
   <si>
-    <t>v1.20rc075</t>
-  </si>
-  <si>
     <t>DAP-2230</t>
   </si>
   <si>
-    <t>v1.10rc034</t>
-  </si>
-  <si>
     <t>DAP-2360B</t>
   </si>
   <si>
-    <t>v2.10rc050</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
     <t>DAP-2310B</t>
   </si>
   <si>
-    <t>v2.10rc036</t>
-  </si>
-  <si>
     <t>DAP-3662</t>
   </si>
   <si>
@@ -2138,15 +2123,9 @@
     <t>DAP-2690B</t>
   </si>
   <si>
-    <t>v3.20rc106</t>
-  </si>
-  <si>
     <t>DAP-3320</t>
   </si>
   <si>
-    <t>v1.05rc019</t>
-  </si>
-  <si>
     <t>DAP-2553</t>
   </si>
   <si>
@@ -2160,10 +2139,6 @@
   </si>
   <si>
     <t>1.00.B027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.05rc029</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2187,6 +2162,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>failed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>Web Status</t>
     </r>
@@ -2203,10 +2182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>failed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Web Status</t>
     </r>
@@ -2223,55 +2198,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Web Status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的SNMP值正确下发之后，设备需要手动重启后执行；SNMP下发FW Upgrade后，设备可以通过TFTP下载FW。但是随后设备的Web GUI登不上，SNMP不通，设备可以一直ping通。需要手动重启设备后，发现FW已经Upgrade成功。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Web Status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的SNMP值正确下发之后，设备需要手动重启后执行；SNMP下发FW Upgrade后，设备可以通过TFTP下载FW。但是随后设备的Web GUI登不上，SNMP不通，设备可以一直ping通。需要手动重启设备后，发现FW已经Upgrade成功。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>failed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Web Status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的SNMP值正确下发之后，设备需要手动重启后执行；SNMP下发FW Upgrade后，设备可以通过TFTP下载FW。但是随后设备的Web GUI登不上，SNMP不通，设备可以一直ping通。需要手动重启设备后，发现FW已经Upgrade成功。</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2631,7 +2558,201 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设备SSH开启时，设备执行FW Upgrade后设备IP变化，SSH自动关闭</t>
+    <t>DWR-925</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xenia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.15rc119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.20rc091</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.05rc031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.10rc054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.10rc038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">log: 
+Dev FW:1.00.032; 
+Status:Fail
+1.Failed to select the next boot image when firmware upgrade, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>DV7 need to modified the upgrade mechansim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2.trap host created failed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>DV7 cannot support G2 devices host create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+DV7:1.2.2.1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.4.0</t>
+  </si>
+  <si>
+    <t>1.3.4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log: 
+Dev FW:v1.15rc093; 
+Status:Fail
+1.After set Web Status by SNMP, user need to reboot device manually.
+DV7:1.3.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log: 
+Dev FW:v1.20rc075; 
+Status:Fail
+1.After set Web Status by SNMP, user need to reboot device manually.
+DV7:1.3.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log: 
+Dev FW:v1.05rc029; 
+Status:Fail
+1.After set Web Status by SNMP, user need to reboot device manually.
+DV7:1.3.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log: 
+Dev FW:v2.10rc050; 
+Status:Fail
+1.After set Web Status by SNMP, user need to reboot device manually.
+2.After Upgrade FW by SNMP, user need to reboot device manually.
+DV7:1.3.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log: 
+Dev FW:v2.10rc036; 
+Status:Fail
+1.After set Web Status by SNMP, user need to reboot device manually.
+2.After Upgrade FW by SNMP, user need to reboot device manually.
+DV7:1.3.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.10rc035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log: 
+Dev FW:v1.10rc034; 
+Status:Fail
+1.After set Web Status by SNMP, user need to reboot device manually.
+2.After Upgrade FW by SNMP, user need to reboot device manually.
+DV7:1.3.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log: 
+Dev FW:v3.20rc106; 
+Status:Fail
+1.After set Web Status by SNMP, user need to reboot device manually.
+DV7:1.3.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3.20rc113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.05rc019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log: 
+Dev FW:v1.05rc019; 
+Status:Fail
+1.After set Web Status by SNMP, user need to reboot device manually.
+DV7:1.3.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIS-300G-8PSW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kevin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIS-300G-12SW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIS-300G-14PSW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.1.00.003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2898,7 +3019,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3006,6 +3127,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3340,13 +3464,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M169"/>
+  <dimension ref="A1:M173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B169" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H173" sqref="H173"/>
+      <selection pane="bottomRight" activeCell="E185" sqref="E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
@@ -3368,17 +3492,17 @@
       <c r="A1" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -4924,7 +5048,7 @@
         <v>305</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="H61" s="15" t="s">
         <v>287</v>
@@ -5002,7 +5126,7 @@
         <v>118</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>29</v>
@@ -5022,7 +5146,7 @@
     </row>
     <row r="65" spans="1:10" ht="51">
       <c r="A65" s="6" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>118</v>
@@ -5043,7 +5167,7 @@
         <v>306</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="I65" s="15"/>
       <c r="J65" s="16" t="s">
@@ -6740,7 +6864,7 @@
     </row>
     <row r="131" spans="1:10" ht="15" customHeight="1">
       <c r="A131" s="15" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B131" s="15" t="s">
         <v>117</v>
@@ -6759,7 +6883,7 @@
       </c>
       <c r="G131" s="15"/>
       <c r="H131" s="20" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="I131" s="15"/>
       <c r="J131" s="15"/>
@@ -6785,7 +6909,7 @@
       </c>
       <c r="G132" s="15"/>
       <c r="H132" s="20" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="I132" s="15"/>
       <c r="J132" s="15"/>
@@ -6811,7 +6935,7 @@
       </c>
       <c r="G133" s="15"/>
       <c r="H133" s="20" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="I133" s="15"/>
       <c r="J133" s="15"/>
@@ -6837,7 +6961,7 @@
       </c>
       <c r="G134" s="15"/>
       <c r="H134" s="20" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="I134" s="15"/>
       <c r="J134" s="15"/>
@@ -6863,14 +6987,14 @@
       </c>
       <c r="G135" s="15"/>
       <c r="H135" s="20" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="I135" s="15"/>
       <c r="J135" s="15"/>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="15" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B136" s="15" t="s">
         <v>117</v>
@@ -6889,14 +7013,14 @@
       </c>
       <c r="G136" s="15"/>
       <c r="H136" s="20" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="I136" s="15"/>
       <c r="J136" s="15"/>
     </row>
     <row r="137" spans="1:10" ht="102">
       <c r="A137" s="8" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>118</v>
@@ -6924,7 +7048,7 @@
     </row>
     <row r="138" spans="1:10" ht="22.5" customHeight="1">
       <c r="A138" s="6" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>117</v>
@@ -6945,14 +7069,14 @@
         <v>284</v>
       </c>
       <c r="H138" s="20" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="I138" s="15"/>
       <c r="J138" s="15"/>
     </row>
     <row r="139" spans="1:10" ht="102">
       <c r="A139" s="8" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>118</v>
@@ -6971,16 +7095,16 @@
       </c>
       <c r="G139" s="16"/>
       <c r="H139" s="20" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="I139" s="15"/>
       <c r="J139" s="16" t="s">
-        <v>262</v>
+        <v>449</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="102">
       <c r="A140" s="8" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>118</v>
@@ -6999,11 +7123,11 @@
       </c>
       <c r="G140" s="16"/>
       <c r="H140" s="20" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="I140" s="15"/>
       <c r="J140" s="16" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="141" spans="1:10" hidden="1">
@@ -7277,20 +7401,20 @@
       </c>
       <c r="G151" s="15"/>
       <c r="H151" s="20" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="I151" s="15"/>
       <c r="J151" s="15"/>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="15" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B152" s="15" t="s">
         <v>118</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>29</v>
@@ -7303,7 +7427,7 @@
       </c>
       <c r="G152" s="15"/>
       <c r="H152" s="20" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="I152" s="15"/>
       <c r="J152" s="15"/>
@@ -7329,7 +7453,7 @@
       </c>
       <c r="G153" s="15"/>
       <c r="H153" s="20" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="I153" s="15"/>
       <c r="J153" s="15"/>
@@ -7355,14 +7479,14 @@
       </c>
       <c r="G154" s="15"/>
       <c r="H154" s="20" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="I154" s="15"/>
       <c r="J154" s="15"/>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="15" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B155" s="15" t="s">
         <v>118</v>
@@ -7381,104 +7505,104 @@
       </c>
       <c r="G155" s="15"/>
       <c r="H155" s="20" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="I155" s="15"/>
       <c r="J155" s="15"/>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="15" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E156" s="14">
         <v>42996</v>
       </c>
       <c r="F156" s="28" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="G156" s="35" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="H156" s="15" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="I156" s="15"/>
       <c r="J156" s="15"/>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="15" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E157" s="14">
         <v>42996</v>
       </c>
       <c r="F157" s="28" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="G157" s="35" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="H157" s="15" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="I157" s="15"/>
       <c r="J157" s="15"/>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="15" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E158" s="14">
         <v>42996</v>
       </c>
       <c r="F158" s="28" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="G158" s="35" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="H158" s="15" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="I158" s="15"/>
       <c r="J158" s="15"/>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="15" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B159" s="15" t="s">
         <v>129</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>145</v>
@@ -7487,29 +7611,29 @@
         <v>42996</v>
       </c>
       <c r="F159" s="28" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="G159" s="35" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="H159" s="15" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="I159" s="15"/>
       <c r="J159" s="15"/>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="15" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="E160" s="14">
         <v>43003</v>
@@ -7519,20 +7643,20 @@
       </c>
       <c r="G160" s="35"/>
       <c r="H160" s="15" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="I160" s="15"/>
       <c r="J160" s="16"/>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="15" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B161" s="15" t="s">
         <v>118</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>77</v>
@@ -7545,23 +7669,23 @@
       </c>
       <c r="G161" s="35"/>
       <c r="H161" s="15" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="I161" s="15"/>
       <c r="J161" s="16"/>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="15" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C162" s="15" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="E162" s="14">
         <v>43027</v>
@@ -7570,52 +7694,52 @@
         <v>305</v>
       </c>
       <c r="G162" s="35" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="H162" s="15" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="I162" s="15"/>
       <c r="J162" s="15"/>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="15" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="E163" s="14">
         <v>43027</v>
       </c>
       <c r="F163" s="28" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="G163" s="35"/>
       <c r="H163" s="15" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="I163" s="15"/>
       <c r="J163" s="15"/>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="15" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="E164" s="14">
         <v>43034</v>
@@ -7624,102 +7748,102 @@
         <v>305</v>
       </c>
       <c r="G164" s="35" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H164" s="15" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="I164" s="15"/>
       <c r="J164" s="15"/>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="15" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="E165" s="14">
         <v>43034</v>
       </c>
       <c r="F165" s="28" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="G165" s="35"/>
       <c r="H165" s="15" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="I165" s="15"/>
       <c r="J165" s="15"/>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="15" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="E166" s="14">
         <v>43041</v>
       </c>
       <c r="F166" s="28" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="G166" s="35" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="H166" s="15" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="I166" s="15"/>
       <c r="J166" s="15"/>
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="15" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="E167" s="14">
         <v>43041</v>
       </c>
       <c r="F167" s="28" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="G167" s="35" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="H167" s="15" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="I167" s="15"/>
       <c r="J167" s="15"/>
     </row>
     <row r="168" spans="1:10">
       <c r="A168" s="15" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C168" s="27">
         <v>2.0299999999999998</v>
@@ -7731,44 +7855,136 @@
         <v>43047</v>
       </c>
       <c r="F168" s="28" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="G168" s="35" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="H168" s="15" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="I168" s="15"/>
       <c r="J168" s="15"/>
     </row>
     <row r="169" spans="1:10">
       <c r="A169" s="15" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="E169" s="14">
         <v>43055</v>
       </c>
       <c r="F169" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="G169" s="35" t="s">
-        <v>451</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G169" s="35"/>
       <c r="H169" s="15" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="I169" s="15"/>
       <c r="J169" s="15"/>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="B170" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="C170" s="15"/>
+      <c r="D170" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="E170" s="14">
+        <v>43087</v>
+      </c>
+      <c r="F170" s="28"/>
+      <c r="G170" s="35"/>
+      <c r="H170" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="I170" s="15"/>
+      <c r="J170" s="15"/>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="C171" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E171" s="14">
+        <v>43108</v>
+      </c>
+      <c r="F171" s="28"/>
+      <c r="G171" s="35"/>
+      <c r="H171" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="I171" s="15"/>
+      <c r="J171" s="15"/>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="B172" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="C172" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E172" s="14">
+        <v>43115</v>
+      </c>
+      <c r="F172" s="28"/>
+      <c r="G172" s="35"/>
+      <c r="H172" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="I172" s="15"/>
+      <c r="J172" s="15"/>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="B173" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="C173" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E173" s="14">
+        <v>43115</v>
+      </c>
+      <c r="F173" s="28"/>
+      <c r="G173" s="35"/>
+      <c r="H173" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="I173" s="15"/>
+      <c r="J173" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:J169">
@@ -7804,32 +8020,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="36"/>
     <col min="7" max="7" width="49.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="15">
       <c r="A1" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="42"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="30" t="s">
@@ -7863,7 +8081,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="76.5">
       <c r="A3" s="27" t="s">
         <v>344</v>
       </c>
@@ -7871,330 +8089,332 @@
         <v>345</v>
       </c>
       <c r="C3" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>346</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>347</v>
       </c>
       <c r="E3" s="33">
         <v>42948</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>372</v>
-      </c>
+      <c r="F3" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G3" s="27"/>
       <c r="H3" s="27" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3" s="34" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="76.5">
       <c r="A4" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>345</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>349</v>
+        <v>445</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E4" s="33">
         <v>42954</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>372</v>
-      </c>
+      <c r="F4" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G4" s="27"/>
       <c r="H4" s="27" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4" s="34" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="76.5">
       <c r="A5" s="27" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>345</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>371</v>
+        <v>446</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E5" s="33">
         <v>42954</v>
       </c>
-      <c r="F5" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>372</v>
-      </c>
+      <c r="F5" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G5" s="27"/>
       <c r="H5" s="27" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-    </row>
-    <row r="6" spans="1:10" ht="48.75">
+      <c r="J5" s="34" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="102">
       <c r="A6" s="27" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>345</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>353</v>
+        <v>447</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E6" s="33">
         <v>42961</v>
       </c>
-      <c r="F6" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>380</v>
-      </c>
+      <c r="F6" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G6" s="34"/>
       <c r="H6" s="27" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-    </row>
-    <row r="7" spans="1:10" ht="48.75">
+      <c r="J6" s="34" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="102">
       <c r="A7" s="27" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>345</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>356</v>
+        <v>448</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E7" s="33">
         <v>42961</v>
       </c>
-      <c r="F7" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>374</v>
-      </c>
+      <c r="F7" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G7" s="34"/>
       <c r="H7" s="27" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="J7" s="34" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="27" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>345</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E8" s="33">
         <v>42968</v>
       </c>
-      <c r="F8" s="27" t="s">
-        <v>373</v>
+      <c r="F8" s="28" t="s">
+        <v>365</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="27" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>345</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E9" s="33">
         <v>42968</v>
       </c>
-      <c r="F9" s="27" t="s">
-        <v>375</v>
+      <c r="F9" s="28" t="s">
+        <v>366</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" ht="48.75">
+    <row r="10" spans="1:10" ht="102">
       <c r="A10" s="27" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>345</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>351</v>
+        <v>458</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>347</v>
+        <v>459</v>
       </c>
       <c r="E10" s="33">
         <v>42975</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>378</v>
-      </c>
+      <c r="F10" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="34"/>
       <c r="H10" s="27" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10" s="34" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="76.5">
       <c r="A11" s="27" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>345</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>363</v>
+        <v>462</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E11" s="33">
         <v>42975</v>
       </c>
-      <c r="F11" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>372</v>
-      </c>
+      <c r="F11" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G11" s="27"/>
       <c r="H11" s="27" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11" s="34" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="76.5">
       <c r="A12" s="27" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>345</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>365</v>
+        <v>463</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E12" s="33">
         <v>42982</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>373</v>
+      <c r="F12" s="28" t="s">
+        <v>365</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
+      <c r="J12" s="34" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="48.75">
       <c r="A13" s="27" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>345</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E13" s="33">
         <v>42982</v>
       </c>
-      <c r="F13" s="27" t="s">
-        <v>379</v>
+      <c r="F13" s="28" t="s">
+        <v>369</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10" ht="48.75">
       <c r="A14" s="27" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>345</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E14" s="33">
         <v>42989</v>
       </c>
-      <c r="F14" s="27" t="s">
-        <v>375</v>
+      <c r="F14" s="28" t="s">
+        <v>366</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>

--- a/DV7 Devices Support List.xlsx
+++ b/DV7 Devices Support List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,7 +16,7 @@
     <sheet name="Wireless" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Switch!$A$2:$J$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Switch!$A$2:$J$173</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="487">
   <si>
     <t>C2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2129,13 +2129,7 @@
     <t>DAP-2553</t>
   </si>
   <si>
-    <t>v3.10rc031</t>
-  </si>
-  <si>
     <t>DWP-2360</t>
-  </si>
-  <si>
-    <t>v2.10rc020</t>
   </si>
   <si>
     <t>1.00.B027</t>
@@ -2159,42 +2153,6 @@
   </si>
   <si>
     <t>failed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Web Status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的SNMP值正确下发之后，设备需要手动重启后执行；SNMP下发FW Upgrade后，设备可以通过TFTP下载FW。但是随后设备的Web GUI登不上，SNMP不通，设备可以一直ping通。需要手动重启设备后，发现FW已经Upgrade成功。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Web Status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的SNMP值正确下发之后，设备需要手动重启后执行；SNMP下发FW Upgrade后，设备可以通过TFTP下载FW。但是随后设备的Web GUI登不上，SNMP不通，设备可以一直ping通。需要手动重启设备后，发现FW已经Upgrade成功。</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2407,14 +2365,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DSR-1000AC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jeff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Jay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2458,10 +2408,6 @@
     <t>1.3.2.0</t>
   </si>
   <si>
-    <t>1.3.2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DGS-1210-26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2535,14 +2481,6 @@
   </si>
   <si>
     <t>failed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3.4.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2724,7 +2662,109 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v1.05rc019</t>
+    <t>DIS-300G-8PSW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kevin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIS-300G-12SW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIS-300G-14PSW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.1.00.003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log: 
+Dev FW:v2.10rc020; 
+Status:Fail
+1.After set Web Status by SNMP, user need to reboot device manually.
+2.After Upgrade FW by SNMP, user need to reboot device manually.
+DV7:1.3.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v210rc021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSR-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSR-500AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSR-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSR-250N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSR-250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSR-150N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSR-150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.10_WW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.11_WW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log: 
+Dev FW:v3.10rc031; 
+Status:Fail
+1.After set Web Status by SNMP, user need to reboot device manually.
+2.After Upgrade FW by SNMP, user need to reboot device manually.
+DV7:1.3.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3.10_rc033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v105rc026</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2736,23 +2776,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DIS-300G-8PSW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kevin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIS-300G-12SW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIS-300G-14PSW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.1.00.003</t>
+    <t>V01.00.1.004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMS-1100-10TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMS-1100-10TP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.00.012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.00.012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2760,7 +2816,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3463,17 +3519,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:M173"/>
+  <dimension ref="A1:M182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B166" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E185" sqref="E185"/>
+      <selection pane="bottomRight" activeCell="G176" sqref="G176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="4" customWidth="1"/>
@@ -3488,7 +3543,7 @@
     <col min="11" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>224</v>
       </c>
@@ -3504,7 +3559,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="39"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -3536,7 +3591,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="12.75" hidden="1" customHeight="1">
+    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>312</v>
       </c>
@@ -3562,7 +3617,7 @@
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
     </row>
-    <row r="4" spans="1:12" ht="12.75" hidden="1" customHeight="1">
+    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>314</v>
       </c>
@@ -3590,7 +3645,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="12.75" hidden="1" customHeight="1">
+    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>313</v>
       </c>
@@ -3616,7 +3671,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:12" ht="12.75" hidden="1" customHeight="1">
+    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>313</v>
       </c>
@@ -3644,7 +3699,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12.75" hidden="1" customHeight="1">
+    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>321</v>
       </c>
@@ -3672,7 +3727,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="12.75" hidden="1" customHeight="1">
+    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>57</v>
       </c>
@@ -3698,7 +3753,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:12" ht="12.75" hidden="1" customHeight="1">
+    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>316</v>
       </c>
@@ -3726,7 +3781,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="12.75" hidden="1" customHeight="1">
+    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>53</v>
       </c>
@@ -3754,7 +3809,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="12.75" hidden="1" customHeight="1">
+    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>317</v>
       </c>
@@ -3780,7 +3835,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:12" ht="12.75" hidden="1" customHeight="1">
+    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>45</v>
       </c>
@@ -3809,7 +3864,7 @@
       </c>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:12" ht="12.75" hidden="1" customHeight="1">
+    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>58</v>
       </c>
@@ -3835,7 +3890,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="1:12" ht="12.75" hidden="1" customHeight="1">
+    <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>256</v>
       </c>
@@ -3863,7 +3918,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="12.75" hidden="1" customHeight="1">
+    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>55</v>
       </c>
@@ -3891,7 +3946,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>237</v>
       </c>
@@ -3917,7 +3972,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:13" ht="38.25" hidden="1">
+    <row r="17" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>318</v>
       </c>
@@ -3946,7 +4001,7 @@
       </c>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" hidden="1">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>54</v>
       </c>
@@ -3972,7 +4027,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:13" ht="38.25" hidden="1" customHeight="1">
+    <row r="19" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>319</v>
       </c>
@@ -4000,7 +4055,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="38.25" hidden="1" customHeight="1">
+    <row r="20" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>146</v>
       </c>
@@ -4026,7 +4081,7 @@
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
     </row>
-    <row r="21" spans="1:13" ht="12.75" hidden="1" customHeight="1">
+    <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>59</v>
       </c>
@@ -4052,7 +4107,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:13" ht="12.75" hidden="1" customHeight="1">
+    <row r="22" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>320</v>
       </c>
@@ -4080,7 +4135,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>46</v>
       </c>
@@ -4104,7 +4159,7 @@
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:13" ht="12.75" customHeight="1">
+    <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>264</v>
       </c>
@@ -4130,7 +4185,7 @@
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:13" ht="12.75" customHeight="1">
+    <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>192</v>
       </c>
@@ -4158,7 +4213,7 @@
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="1:13" ht="12.75" hidden="1" customHeight="1">
+    <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>163</v>
       </c>
@@ -4182,7 +4237,7 @@
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="1:13" ht="12.75" customHeight="1">
+    <row r="27" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>193</v>
       </c>
@@ -4210,7 +4265,7 @@
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
     </row>
-    <row r="28" spans="1:13" ht="12.75" hidden="1" customHeight="1">
+    <row r="28" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>205</v>
       </c>
@@ -4234,7 +4289,7 @@
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
     </row>
-    <row r="29" spans="1:13" ht="12.75" customHeight="1">
+    <row r="29" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -4262,7 +4317,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
     </row>
-    <row r="30" spans="1:13" ht="12.75" hidden="1" customHeight="1">
+    <row r="30" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>44</v>
       </c>
@@ -4286,7 +4341,7 @@
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:13" ht="12.75" hidden="1" customHeight="1">
+    <row r="31" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>50</v>
       </c>
@@ -4310,7 +4365,7 @@
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
     </row>
-    <row r="32" spans="1:13" hidden="1">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>60</v>
       </c>
@@ -4334,7 +4389,7 @@
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
     </row>
-    <row r="33" spans="1:10" hidden="1">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>56</v>
       </c>
@@ -4358,7 +4413,7 @@
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
     </row>
-    <row r="34" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>216</v>
       </c>
@@ -4382,7 +4437,7 @@
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
     </row>
-    <row r="35" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>48</v>
       </c>
@@ -4406,7 +4461,7 @@
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
     </row>
-    <row r="36" spans="1:10" hidden="1">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>51</v>
       </c>
@@ -4430,7 +4485,7 @@
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
     </row>
-    <row r="37" spans="1:10" hidden="1">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>47</v>
       </c>
@@ -4454,7 +4509,7 @@
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
     </row>
-    <row r="38" spans="1:10" ht="12.75" customHeight="1">
+    <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>106</v>
       </c>
@@ -4482,7 +4537,7 @@
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
     </row>
-    <row r="39" spans="1:10" ht="12.75" customHeight="1">
+    <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>309</v>
       </c>
@@ -4508,7 +4563,7 @@
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>71</v>
       </c>
@@ -4534,7 +4589,7 @@
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>73</v>
       </c>
@@ -4560,7 +4615,7 @@
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
     </row>
-    <row r="42" spans="1:10" ht="12.75" customHeight="1">
+    <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>74</v>
       </c>
@@ -4586,7 +4641,7 @@
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>104</v>
       </c>
@@ -4612,7 +4667,7 @@
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
     </row>
-    <row r="44" spans="1:10" ht="12.75" customHeight="1">
+    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>105</v>
       </c>
@@ -4638,7 +4693,7 @@
       <c r="I44" s="15"/>
       <c r="J44" s="15"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>76</v>
       </c>
@@ -4664,7 +4719,7 @@
       <c r="I45" s="15"/>
       <c r="J45" s="15"/>
     </row>
-    <row r="46" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>69</v>
       </c>
@@ -4688,7 +4743,7 @@
       <c r="I46" s="15"/>
       <c r="J46" s="15"/>
     </row>
-    <row r="47" spans="1:10" hidden="1">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>62</v>
       </c>
@@ -4712,7 +4767,7 @@
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
     </row>
-    <row r="48" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>70</v>
       </c>
@@ -4736,7 +4791,7 @@
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
     </row>
-    <row r="49" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>64</v>
       </c>
@@ -4760,7 +4815,7 @@
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
     </row>
-    <row r="50" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="50" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>65</v>
       </c>
@@ -4784,7 +4839,7 @@
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
     </row>
-    <row r="51" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="51" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>63</v>
       </c>
@@ -4808,7 +4863,7 @@
       <c r="I51" s="15"/>
       <c r="J51" s="15"/>
     </row>
-    <row r="52" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>66</v>
       </c>
@@ -4832,7 +4887,7 @@
       <c r="I52" s="15"/>
       <c r="J52" s="15"/>
     </row>
-    <row r="53" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>75</v>
       </c>
@@ -4856,7 +4911,7 @@
       <c r="I53" s="15"/>
       <c r="J53" s="15"/>
     </row>
-    <row r="54" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>67</v>
       </c>
@@ -4880,7 +4935,7 @@
       <c r="I54" s="15"/>
       <c r="J54" s="15"/>
     </row>
-    <row r="55" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>72</v>
       </c>
@@ -4904,7 +4959,7 @@
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
     </row>
-    <row r="56" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="56" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>68</v>
       </c>
@@ -4928,7 +4983,7 @@
       <c r="I56" s="15"/>
       <c r="J56" s="15"/>
     </row>
-    <row r="57" spans="1:10" hidden="1">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>136</v>
       </c>
@@ -4952,7 +5007,7 @@
       <c r="I57" s="15"/>
       <c r="J57" s="15"/>
     </row>
-    <row r="58" spans="1:10" hidden="1">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>133</v>
       </c>
@@ -4976,7 +5031,7 @@
       <c r="I58" s="15"/>
       <c r="J58" s="15"/>
     </row>
-    <row r="59" spans="1:10" hidden="1">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>131</v>
       </c>
@@ -5000,7 +5055,7 @@
       <c r="I59" s="15"/>
       <c r="J59" s="15"/>
     </row>
-    <row r="60" spans="1:10" ht="114.75">
+    <row r="60" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>24</v>
       </c>
@@ -5028,7 +5083,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="114.75">
+    <row r="61" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>26</v>
       </c>
@@ -5048,7 +5103,7 @@
         <v>305</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="H61" s="15" t="s">
         <v>287</v>
@@ -5058,7 +5113,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="12.75" customHeight="1">
+    <row r="62" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>41</v>
       </c>
@@ -5088,7 +5143,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="51">
+    <row r="63" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>42</v>
       </c>
@@ -5118,7 +5173,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>43</v>
       </c>
@@ -5126,7 +5181,7 @@
         <v>118</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>29</v>
@@ -5144,9 +5199,9 @@
       <c r="I64" s="15"/>
       <c r="J64" s="16"/>
     </row>
-    <row r="65" spans="1:10" ht="51">
+    <row r="65" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>118</v>
@@ -5167,14 +5222,14 @@
         <v>306</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="I65" s="15"/>
       <c r="J65" s="16" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>166</v>
       </c>
@@ -5200,7 +5255,7 @@
       <c r="I66" s="15"/>
       <c r="J66" s="15"/>
     </row>
-    <row r="67" spans="1:10" ht="12.75" customHeight="1">
+    <row r="67" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>40</v>
       </c>
@@ -5230,7 +5285,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="12.75" customHeight="1">
+    <row r="68" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>292</v>
       </c>
@@ -5258,7 +5313,7 @@
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
     </row>
-    <row r="69" spans="1:10" ht="12.75" customHeight="1">
+    <row r="69" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>296</v>
       </c>
@@ -5286,7 +5341,7 @@
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>297</v>
       </c>
@@ -5314,7 +5369,7 @@
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>191</v>
       </c>
@@ -5340,7 +5395,7 @@
       <c r="I71" s="15"/>
       <c r="J71" s="15"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>2</v>
       </c>
@@ -5366,7 +5421,7 @@
       <c r="I72" s="15"/>
       <c r="J72" s="15"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>300</v>
       </c>
@@ -5394,7 +5449,7 @@
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>3</v>
       </c>
@@ -5420,7 +5475,7 @@
       <c r="I74" s="15"/>
       <c r="J74" s="15"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>9</v>
       </c>
@@ -5446,7 +5501,7 @@
       <c r="I75" s="15"/>
       <c r="J75" s="15"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>10</v>
       </c>
@@ -5472,7 +5527,7 @@
       <c r="I76" s="15"/>
       <c r="J76" s="15"/>
     </row>
-    <row r="77" spans="1:10" ht="12.75" customHeight="1">
+    <row r="77" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>11</v>
       </c>
@@ -5498,7 +5553,7 @@
       <c r="I77" s="15"/>
       <c r="J77" s="15"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>13</v>
       </c>
@@ -5526,7 +5581,7 @@
       <c r="I78" s="15"/>
       <c r="J78" s="15"/>
     </row>
-    <row r="79" spans="1:10" ht="12.75" customHeight="1">
+    <row r="79" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>15</v>
       </c>
@@ -5552,7 +5607,7 @@
       <c r="I79" s="15"/>
       <c r="J79" s="15"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>19</v>
       </c>
@@ -5580,7 +5635,7 @@
       <c r="I80" s="15"/>
       <c r="J80" s="15"/>
     </row>
-    <row r="81" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="81" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>194</v>
       </c>
@@ -5604,7 +5659,7 @@
       <c r="I81" s="15"/>
       <c r="J81" s="15"/>
     </row>
-    <row r="82" spans="1:10" hidden="1">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>197</v>
       </c>
@@ -5628,7 +5683,7 @@
       <c r="I82" s="15"/>
       <c r="J82" s="15"/>
     </row>
-    <row r="83" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="83" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>199</v>
       </c>
@@ -5652,7 +5707,7 @@
       <c r="I83" s="15"/>
       <c r="J83" s="15"/>
     </row>
-    <row r="84" spans="1:10" hidden="1">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>12</v>
       </c>
@@ -5676,7 +5731,7 @@
       <c r="I84" s="15"/>
       <c r="J84" s="15"/>
     </row>
-    <row r="85" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="85" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>16</v>
       </c>
@@ -5700,7 +5755,7 @@
       <c r="I85" s="15"/>
       <c r="J85" s="15"/>
     </row>
-    <row r="86" spans="1:10" hidden="1">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>14</v>
       </c>
@@ -5724,7 +5779,7 @@
       <c r="I86" s="15"/>
       <c r="J86" s="15"/>
     </row>
-    <row r="87" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="87" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>17</v>
       </c>
@@ -5748,7 +5803,7 @@
       <c r="I87" s="15"/>
       <c r="J87" s="15"/>
     </row>
-    <row r="88" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="88" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>18</v>
       </c>
@@ -5772,7 +5827,7 @@
       <c r="I88" s="15"/>
       <c r="J88" s="15"/>
     </row>
-    <row r="89" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="89" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>20</v>
       </c>
@@ -5796,7 +5851,7 @@
       <c r="I89" s="15"/>
       <c r="J89" s="15"/>
     </row>
-    <row r="90" spans="1:10" hidden="1">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>38</v>
       </c>
@@ -5822,7 +5877,7 @@
       <c r="I90" s="15"/>
       <c r="J90" s="15"/>
     </row>
-    <row r="91" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="91" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>27</v>
       </c>
@@ -5848,7 +5903,7 @@
       <c r="I91" s="15"/>
       <c r="J91" s="15"/>
     </row>
-    <row r="92" spans="1:10" hidden="1">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>31</v>
       </c>
@@ -5874,7 +5929,7 @@
       <c r="I92" s="15"/>
       <c r="J92" s="15"/>
     </row>
-    <row r="93" spans="1:10" hidden="1">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>30</v>
       </c>
@@ -5900,7 +5955,7 @@
       <c r="I93" s="15"/>
       <c r="J93" s="15"/>
     </row>
-    <row r="94" spans="1:10" hidden="1">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>125</v>
       </c>
@@ -5926,7 +5981,7 @@
       <c r="I94" s="15"/>
       <c r="J94" s="15"/>
     </row>
-    <row r="95" spans="1:10" hidden="1">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>220</v>
       </c>
@@ -5952,7 +6007,7 @@
       <c r="I95" s="15"/>
       <c r="J95" s="15"/>
     </row>
-    <row r="96" spans="1:10" hidden="1">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>121</v>
       </c>
@@ -5980,7 +6035,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>122</v>
       </c>
@@ -6008,7 +6063,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>126</v>
       </c>
@@ -6034,7 +6089,7 @@
       <c r="I98" s="15"/>
       <c r="J98" s="15"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>78</v>
       </c>
@@ -6060,7 +6115,7 @@
       <c r="I99" s="15"/>
       <c r="J99" s="15"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>80</v>
       </c>
@@ -6086,7 +6141,7 @@
       <c r="I100" s="15"/>
       <c r="J100" s="15"/>
     </row>
-    <row r="101" spans="1:10" ht="12.75" customHeight="1">
+    <row r="101" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>81</v>
       </c>
@@ -6112,7 +6167,7 @@
       <c r="I101" s="15"/>
       <c r="J101" s="15"/>
     </row>
-    <row r="102" spans="1:10" ht="12.75" customHeight="1">
+    <row r="102" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>298</v>
       </c>
@@ -6138,7 +6193,7 @@
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
     </row>
-    <row r="103" spans="1:10" ht="12.75" customHeight="1">
+    <row r="103" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>299</v>
       </c>
@@ -6164,7 +6219,7 @@
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
     </row>
-    <row r="104" spans="1:10" ht="12.75" customHeight="1">
+    <row r="104" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
         <v>267</v>
       </c>
@@ -6190,7 +6245,7 @@
       <c r="I104" s="15"/>
       <c r="J104" s="15"/>
     </row>
-    <row r="105" spans="1:10" ht="12.75" customHeight="1">
+    <row r="105" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
         <v>249</v>
       </c>
@@ -6216,7 +6271,7 @@
       <c r="I105" s="15"/>
       <c r="J105" s="15"/>
     </row>
-    <row r="106" spans="1:10" ht="12.75" customHeight="1">
+    <row r="106" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
         <v>268</v>
       </c>
@@ -6242,7 +6297,7 @@
       <c r="I106" s="15"/>
       <c r="J106" s="15"/>
     </row>
-    <row r="107" spans="1:10" ht="12.75" customHeight="1">
+    <row r="107" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>250</v>
       </c>
@@ -6268,7 +6323,7 @@
       <c r="I107" s="15"/>
       <c r="J107" s="15"/>
     </row>
-    <row r="108" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="108" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>78</v>
       </c>
@@ -6292,7 +6347,7 @@
       <c r="I108" s="15"/>
       <c r="J108" s="15"/>
     </row>
-    <row r="109" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="109" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>80</v>
       </c>
@@ -6316,7 +6371,7 @@
       <c r="I109" s="15"/>
       <c r="J109" s="15"/>
     </row>
-    <row r="110" spans="1:10" hidden="1">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>81</v>
       </c>
@@ -6340,7 +6395,7 @@
       <c r="I110" s="15"/>
       <c r="J110" s="15"/>
     </row>
-    <row r="111" spans="1:10" hidden="1">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>82</v>
       </c>
@@ -6364,7 +6419,7 @@
       <c r="I111" s="15"/>
       <c r="J111" s="15"/>
     </row>
-    <row r="112" spans="1:10" hidden="1">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>86</v>
       </c>
@@ -6388,7 +6443,7 @@
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
     </row>
-    <row r="113" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="113" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>87</v>
       </c>
@@ -6412,7 +6467,7 @@
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
     </row>
-    <row r="114" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="114" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>88</v>
       </c>
@@ -6436,7 +6491,7 @@
       <c r="I114" s="15"/>
       <c r="J114" s="15"/>
     </row>
-    <row r="115" spans="1:10" ht="10.5" hidden="1" customHeight="1">
+    <row r="115" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>83</v>
       </c>
@@ -6460,7 +6515,7 @@
       <c r="I115" s="15"/>
       <c r="J115" s="15"/>
     </row>
-    <row r="116" spans="1:10" hidden="1">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>90</v>
       </c>
@@ -6484,7 +6539,7 @@
       <c r="I116" s="15"/>
       <c r="J116" s="15"/>
     </row>
-    <row r="117" spans="1:10" hidden="1">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>89</v>
       </c>
@@ -6508,7 +6563,7 @@
       <c r="I117" s="15"/>
       <c r="J117" s="15"/>
     </row>
-    <row r="118" spans="1:10" ht="76.5">
+    <row r="118" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>111</v>
       </c>
@@ -6536,7 +6591,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>110</v>
       </c>
@@ -6560,7 +6615,7 @@
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
     </row>
-    <row r="120" spans="1:10" ht="12" hidden="1" customHeight="1">
+    <row r="120" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>109</v>
       </c>
@@ -6584,7 +6639,7 @@
       <c r="I120" s="15"/>
       <c r="J120" s="15"/>
     </row>
-    <row r="121" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="121" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>108</v>
       </c>
@@ -6608,7 +6663,7 @@
       <c r="I121" s="15"/>
       <c r="J121" s="15"/>
     </row>
-    <row r="122" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="122" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>113</v>
       </c>
@@ -6636,7 +6691,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="123" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>112</v>
       </c>
@@ -6664,7 +6719,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="124" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>115</v>
       </c>
@@ -6688,7 +6743,7 @@
       <c r="I124" s="15"/>
       <c r="J124" s="15"/>
     </row>
-    <row r="125" spans="1:10" ht="12.75" hidden="1" customHeight="1">
+    <row r="125" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>308</v>
       </c>
@@ -6712,7 +6767,7 @@
       <c r="I125" s="15"/>
       <c r="J125" s="15"/>
     </row>
-    <row r="126" spans="1:10" ht="12.75" customHeight="1">
+    <row r="126" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>97</v>
       </c>
@@ -6742,7 +6797,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>98</v>
       </c>
@@ -6772,7 +6827,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="12.75" customHeight="1">
+    <row r="128" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>99</v>
       </c>
@@ -6802,7 +6857,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>100</v>
       </c>
@@ -6832,7 +6887,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="12.75" customHeight="1">
+    <row r="130" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>101</v>
       </c>
@@ -6862,9 +6917,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15" customHeight="1">
+    <row r="131" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B131" s="15" t="s">
         <v>117</v>
@@ -6883,12 +6938,12 @@
       </c>
       <c r="G131" s="15"/>
       <c r="H131" s="20" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="I131" s="15"/>
       <c r="J131" s="15"/>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
         <v>266</v>
       </c>
@@ -6909,12 +6964,12 @@
       </c>
       <c r="G132" s="15"/>
       <c r="H132" s="20" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="I132" s="15"/>
       <c r="J132" s="15"/>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
         <v>252</v>
       </c>
@@ -6935,12 +6990,12 @@
       </c>
       <c r="G133" s="15"/>
       <c r="H133" s="20" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="I133" s="15"/>
       <c r="J133" s="15"/>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
         <v>251</v>
       </c>
@@ -6961,12 +7016,12 @@
       </c>
       <c r="G134" s="15"/>
       <c r="H134" s="20" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="I134" s="15"/>
       <c r="J134" s="15"/>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="15" t="s">
         <v>253</v>
       </c>
@@ -6987,14 +7042,14 @@
       </c>
       <c r="G135" s="15"/>
       <c r="H135" s="20" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="I135" s="15"/>
       <c r="J135" s="15"/>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="15" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B136" s="15" t="s">
         <v>117</v>
@@ -7013,14 +7068,14 @@
       </c>
       <c r="G136" s="15"/>
       <c r="H136" s="20" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="I136" s="15"/>
       <c r="J136" s="15"/>
     </row>
-    <row r="137" spans="1:10" ht="102">
+    <row r="137" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>118</v>
@@ -7046,9 +7101,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="22.5" customHeight="1">
+    <row r="138" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>117</v>
@@ -7069,14 +7124,14 @@
         <v>284</v>
       </c>
       <c r="H138" s="20" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="I138" s="15"/>
       <c r="J138" s="15"/>
     </row>
-    <row r="139" spans="1:10" ht="102">
+    <row r="139" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>118</v>
@@ -7095,16 +7150,16 @@
       </c>
       <c r="G139" s="16"/>
       <c r="H139" s="20" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="I139" s="15"/>
       <c r="J139" s="16" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="102">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>118</v>
@@ -7123,14 +7178,14 @@
       </c>
       <c r="G140" s="16"/>
       <c r="H140" s="20" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="I140" s="15"/>
       <c r="J140" s="16" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" hidden="1">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>32</v>
       </c>
@@ -7156,7 +7211,7 @@
       <c r="I141" s="15"/>
       <c r="J141" s="15"/>
     </row>
-    <row r="142" spans="1:10" hidden="1">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>34</v>
       </c>
@@ -7182,7 +7237,7 @@
       <c r="I142" s="15"/>
       <c r="J142" s="15"/>
     </row>
-    <row r="143" spans="1:10" hidden="1">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>35</v>
       </c>
@@ -7208,7 +7263,7 @@
       <c r="I143" s="15"/>
       <c r="J143" s="15"/>
     </row>
-    <row r="144" spans="1:10" hidden="1">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>37</v>
       </c>
@@ -7234,7 +7289,7 @@
       <c r="I144" s="15"/>
       <c r="J144" s="15"/>
     </row>
-    <row r="145" spans="1:10" hidden="1">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>36</v>
       </c>
@@ -7260,7 +7315,7 @@
       <c r="I145" s="15"/>
       <c r="J145" s="15"/>
     </row>
-    <row r="146" spans="1:10" hidden="1">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>91</v>
       </c>
@@ -7284,7 +7339,7 @@
       <c r="I146" s="15"/>
       <c r="J146" s="15"/>
     </row>
-    <row r="147" spans="1:10" hidden="1">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
         <v>94</v>
       </c>
@@ -7308,7 +7363,7 @@
       <c r="I147" s="15"/>
       <c r="J147" s="15"/>
     </row>
-    <row r="148" spans="1:10" hidden="1">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>93</v>
       </c>
@@ -7332,7 +7387,7 @@
       <c r="I148" s="15"/>
       <c r="J148" s="15"/>
     </row>
-    <row r="149" spans="1:10" hidden="1">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>96</v>
       </c>
@@ -7356,7 +7411,7 @@
       <c r="I149" s="15"/>
       <c r="J149" s="15"/>
     </row>
-    <row r="150" spans="1:10" hidden="1">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>95</v>
       </c>
@@ -7380,7 +7435,7 @@
       <c r="I150" s="15"/>
       <c r="J150" s="15"/>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="15" t="s">
         <v>327</v>
       </c>
@@ -7401,20 +7456,20 @@
       </c>
       <c r="G151" s="15"/>
       <c r="H151" s="20" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="I151" s="15"/>
       <c r="J151" s="15"/>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="15" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B152" s="15" t="s">
         <v>118</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>29</v>
@@ -7427,12 +7482,12 @@
       </c>
       <c r="G152" s="15"/>
       <c r="H152" s="20" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="I152" s="15"/>
       <c r="J152" s="15"/>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="15" t="s">
         <v>329</v>
       </c>
@@ -7453,12 +7508,12 @@
       </c>
       <c r="G153" s="15"/>
       <c r="H153" s="20" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="I153" s="15"/>
       <c r="J153" s="15"/>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="15" t="s">
         <v>330</v>
       </c>
@@ -7479,14 +7534,14 @@
       </c>
       <c r="G154" s="15"/>
       <c r="H154" s="20" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="I154" s="15"/>
       <c r="J154" s="15"/>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="15" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B155" s="15" t="s">
         <v>118</v>
@@ -7505,104 +7560,104 @@
       </c>
       <c r="G155" s="15"/>
       <c r="H155" s="20" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="I155" s="15"/>
       <c r="J155" s="15"/>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="15" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E156" s="14">
         <v>42996</v>
       </c>
       <c r="F156" s="28" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G156" s="35" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H156" s="15" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="I156" s="15"/>
       <c r="J156" s="15"/>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="15" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E157" s="14">
         <v>42996</v>
       </c>
       <c r="F157" s="28" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G157" s="35" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="H157" s="15" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="I157" s="15"/>
       <c r="J157" s="15"/>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="15" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E158" s="14">
         <v>42996</v>
       </c>
       <c r="F158" s="28" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G158" s="35" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H158" s="15" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="I158" s="15"/>
       <c r="J158" s="15"/>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="15" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B159" s="15" t="s">
         <v>129</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>145</v>
@@ -7611,29 +7666,29 @@
         <v>42996</v>
       </c>
       <c r="F159" s="28" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G159" s="35" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H159" s="15" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="I159" s="15"/>
       <c r="J159" s="15"/>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E160" s="14">
         <v>43003</v>
@@ -7643,20 +7698,20 @@
       </c>
       <c r="G160" s="35"/>
       <c r="H160" s="15" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="I160" s="15"/>
       <c r="J160" s="16"/>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="15" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B161" s="15" t="s">
         <v>118</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>77</v>
@@ -7669,23 +7724,23 @@
       </c>
       <c r="G161" s="35"/>
       <c r="H161" s="15" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="I161" s="15"/>
       <c r="J161" s="16"/>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C162" s="15" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E162" s="14">
         <v>43027</v>
@@ -7694,52 +7749,52 @@
         <v>305</v>
       </c>
       <c r="G162" s="35" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="H162" s="15" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="I162" s="15"/>
       <c r="J162" s="15"/>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="15" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E163" s="14">
         <v>43027</v>
       </c>
       <c r="F163" s="28" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G163" s="35"/>
       <c r="H163" s="15" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="I163" s="15"/>
       <c r="J163" s="15"/>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E164" s="14">
         <v>43034</v>
@@ -7748,102 +7803,102 @@
         <v>305</v>
       </c>
       <c r="G164" s="35" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H164" s="15" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="I164" s="15"/>
       <c r="J164" s="15"/>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="15" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E165" s="14">
         <v>43034</v>
       </c>
       <c r="F165" s="28" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="G165" s="35"/>
       <c r="H165" s="15" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="I165" s="15"/>
       <c r="J165" s="15"/>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="15" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E166" s="14">
         <v>43041</v>
       </c>
       <c r="F166" s="28" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G166" s="35" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="H166" s="15" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="I166" s="15"/>
       <c r="J166" s="15"/>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="15" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E167" s="14">
         <v>43041</v>
       </c>
       <c r="F167" s="28" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G167" s="35" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H167" s="15" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="I167" s="15"/>
       <c r="J167" s="15"/>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C168" s="27">
         <v>2.0299999999999998</v>
@@ -7855,74 +7910,78 @@
         <v>43047</v>
       </c>
       <c r="F168" s="28" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G168" s="35" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="H168" s="15" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="I168" s="15"/>
       <c r="J168" s="15"/>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="15" t="s">
-        <v>402</v>
+        <v>133</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>403</v>
+        <v>134</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="E169" s="14">
         <v>43055</v>
       </c>
       <c r="F169" s="28" t="s">
-        <v>258</v>
+        <v>469</v>
       </c>
       <c r="G169" s="35"/>
       <c r="H169" s="15" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="I169" s="15"/>
       <c r="J169" s="15"/>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="15" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="C170" s="15"/>
+        <v>433</v>
+      </c>
+      <c r="C170" s="15" t="s">
+        <v>478</v>
+      </c>
       <c r="D170" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="E170" s="14">
-        <v>43087</v>
-      </c>
-      <c r="F170" s="28"/>
+        <v>43124</v>
+      </c>
+      <c r="F170" s="28" t="s">
+        <v>479</v>
+      </c>
       <c r="G170" s="35"/>
       <c r="H170" s="15" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="I170" s="15"/>
       <c r="J170" s="15"/>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="15" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>25</v>
@@ -7930,23 +7989,25 @@
       <c r="E171" s="14">
         <v>43108</v>
       </c>
-      <c r="F171" s="28"/>
+      <c r="F171" s="28" t="s">
+        <v>258</v>
+      </c>
       <c r="G171" s="35"/>
       <c r="H171" s="15" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="I171" s="15"/>
       <c r="J171" s="15"/>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="15" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C172" s="15" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>25</v>
@@ -7954,23 +8015,25 @@
       <c r="E172" s="14">
         <v>43115</v>
       </c>
-      <c r="F172" s="28"/>
+      <c r="F172" s="28" t="s">
+        <v>258</v>
+      </c>
       <c r="G172" s="35"/>
       <c r="H172" s="15" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="I172" s="15"/>
       <c r="J172" s="15"/>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="15" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>25</v>
@@ -7978,21 +8041,236 @@
       <c r="E173" s="14">
         <v>43115</v>
       </c>
-      <c r="F173" s="28"/>
+      <c r="F173" s="28" t="s">
+        <v>480</v>
+      </c>
       <c r="G173" s="35"/>
       <c r="H173" s="15" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="I173" s="15"/>
       <c r="J173" s="15"/>
     </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="B174" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C174" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E174" s="14">
+        <v>43122</v>
+      </c>
+      <c r="F174" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="G174" s="35"/>
+      <c r="H174" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="I174" s="15"/>
+      <c r="J174" s="15"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="B175" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C175" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E175" s="14">
+        <v>43126</v>
+      </c>
+      <c r="F175" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="G175" s="35"/>
+      <c r="H175" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="I175" s="15"/>
+      <c r="J175" s="15"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C176" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E176" s="14">
+        <v>43126</v>
+      </c>
+      <c r="F176" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="G176" s="35"/>
+      <c r="H176" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="I176" s="15"/>
+      <c r="J176" s="15"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="B177" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C177" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E177" s="14">
+        <v>43133</v>
+      </c>
+      <c r="F177" s="28"/>
+      <c r="G177" s="35"/>
+      <c r="H177" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="I177" s="15"/>
+      <c r="J177" s="15"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="B178" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C178" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E178" s="14">
+        <v>43133</v>
+      </c>
+      <c r="F178" s="28"/>
+      <c r="G178" s="35"/>
+      <c r="H178" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="I178" s="15"/>
+      <c r="J178" s="15"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="B179" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C179" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E179" s="14">
+        <v>43138</v>
+      </c>
+      <c r="F179" s="28"/>
+      <c r="G179" s="35"/>
+      <c r="H179" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="I179" s="15"/>
+      <c r="J179" s="15"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="B180" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C180" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E180" s="14">
+        <v>43138</v>
+      </c>
+      <c r="F180" s="28"/>
+      <c r="G180" s="35"/>
+      <c r="H180" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="I180" s="15"/>
+      <c r="J180" s="15"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="B181" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C181" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="E181" s="14">
+        <v>43157</v>
+      </c>
+      <c r="F181" s="28"/>
+      <c r="G181" s="35"/>
+      <c r="H181" s="15"/>
+      <c r="I181" s="15"/>
+      <c r="J181" s="15"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="B182" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C182" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="E182" s="14">
+        <v>43157</v>
+      </c>
+      <c r="F182" s="28"/>
+      <c r="G182" s="35"/>
+      <c r="H182" s="15"/>
+      <c r="I182" s="15"/>
+      <c r="J182" s="15"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:J169">
-    <filterColumn colId="4">
-      <filters>
-        <dateGroupItem year="2017" dateTimeGrouping="year"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A2:J173">
     <sortState ref="A61:J138">
       <sortCondition ref="E2:E150"/>
     </sortState>
@@ -8020,11 +8298,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="36"/>
@@ -8033,7 +8311,7 @@
     <col min="10" max="10" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="15">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>332</v>
       </c>
@@ -8049,7 +8327,7 @@
       <c r="I1" s="41"/>
       <c r="J1" s="42"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>334</v>
       </c>
@@ -8081,7 +8359,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="76.5">
+    <row r="3" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>344</v>
       </c>
@@ -8089,7 +8367,7 @@
         <v>345</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>346</v>
@@ -8102,14 +8380,14 @@
       </c>
       <c r="G3" s="27"/>
       <c r="H3" s="27" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="I3" s="27"/>
       <c r="J3" s="34" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="76.5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>347</v>
       </c>
@@ -8117,7 +8395,7 @@
         <v>345</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>346</v>
@@ -8130,14 +8408,14 @@
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="27" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="34" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="76.5">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>348</v>
       </c>
@@ -8145,7 +8423,7 @@
         <v>345</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>346</v>
@@ -8158,14 +8436,14 @@
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="34" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="102">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>349</v>
       </c>
@@ -8173,7 +8451,7 @@
         <v>345</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>350</v>
@@ -8186,14 +8464,14 @@
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="27" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="34" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="102">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>351</v>
       </c>
@@ -8201,7 +8479,7 @@
         <v>345</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>350</v>
@@ -8214,14 +8492,14 @@
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="27" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="34" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>352</v>
       </c>
@@ -8238,18 +8516,18 @@
         <v>42968</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>354</v>
       </c>
@@ -8266,18 +8544,18 @@
         <v>42968</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" ht="102">
+    <row r="10" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>356</v>
       </c>
@@ -8285,10 +8563,10 @@
         <v>345</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="E10" s="33">
         <v>42975</v>
@@ -8298,14 +8576,14 @@
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="27" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="34" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="76.5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>357</v>
       </c>
@@ -8313,7 +8591,7 @@
         <v>345</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>350</v>
@@ -8326,14 +8604,14 @@
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="34" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="76.5">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>358</v>
       </c>
@@ -8341,7 +8619,7 @@
         <v>345</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>346</v>
@@ -8350,20 +8628,18 @@
         <v>42982</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>364</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G12" s="27"/>
       <c r="H12" s="27" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="34" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="48.75">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>359</v>
       </c>
@@ -8371,7 +8647,7 @@
         <v>345</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>360</v>
+        <v>475</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>350</v>
@@ -8380,26 +8656,26 @@
         <v>42982</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>367</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G13" s="34"/>
       <c r="H13" s="27" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
       <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-    </row>
-    <row r="14" spans="1:10" ht="48.75">
+      <c r="J13" s="34" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="102" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>345</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>362</v>
+        <v>460</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>350</v>
@@ -8408,16 +8684,16 @@
         <v>42989</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>368</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="27" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
+      <c r="J14" s="34" t="s">
+        <v>458</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
